--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2483583.371527658</v>
+        <v>-2485641.205187297</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2325066.94222737</v>
+        <v>2325066.942227369</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>193.2468407049111</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W2" t="n">
-        <v>227.9030768592324</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.018266598632368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>113.3139985143129</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>135.1613884042816</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="H5" t="n">
-        <v>18.07837557354543</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>80.92993499844633</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>89.22980417618466</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.69992835749049</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>376.6743538733476</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>227.6126583307048</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>33.83094574014091</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>366.9794131903977</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9961802026462</v>
@@ -1388,7 +1388,7 @@
         <v>305.6115220392408</v>
       </c>
       <c r="I11" t="n">
-        <v>82.99983878067965</v>
+        <v>43.10320622936605</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.6718948279059</v>
+        <v>133.6718948279058</v>
       </c>
       <c r="T11" t="n">
-        <v>208.6213949287114</v>
+        <v>208.6213949287115</v>
       </c>
       <c r="U11" t="n">
         <v>251.0811283228366</v>
@@ -1464,10 +1464,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H12" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I12" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.040106989587</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.8463719282233</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.602976191793</v>
+        <v>110.6029761917923</v>
       </c>
       <c r="S13" t="n">
-        <v>198.1683315771324</v>
+        <v>174.06692761949</v>
       </c>
       <c r="T13" t="n">
         <v>221.6082471037511</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2381271140501</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.60361097203997</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380.0740661600597</v>
+        <v>380.0740661600596</v>
       </c>
       <c r="C14" t="n">
-        <v>362.6131162675867</v>
+        <v>362.6131162675866</v>
       </c>
       <c r="D14" t="n">
-        <v>352.0232661172621</v>
+        <v>352.023266117262</v>
       </c>
       <c r="E14" t="n">
-        <v>379.2705945688409</v>
+        <v>379.2705945688408</v>
       </c>
       <c r="F14" t="n">
-        <v>404.2162702382906</v>
+        <v>404.2162702382905</v>
       </c>
       <c r="G14" t="n">
-        <v>409.3364046992253</v>
+        <v>409.3364046992252</v>
       </c>
       <c r="H14" t="n">
-        <v>302.9517465358199</v>
+        <v>302.9517465358198</v>
       </c>
       <c r="I14" t="n">
-        <v>80.34006327725862</v>
+        <v>80.34006327725875</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>131.0121193244844</v>
       </c>
       <c r="T14" t="n">
-        <v>205.9616194252906</v>
+        <v>205.9616194252905</v>
       </c>
       <c r="U14" t="n">
         <v>248.4213528194177</v>
       </c>
       <c r="V14" t="n">
-        <v>325.092482966714</v>
+        <v>325.0924829667139</v>
       </c>
       <c r="W14" t="n">
-        <v>346.5811932139922</v>
+        <v>346.581193213992</v>
       </c>
       <c r="X14" t="n">
-        <v>367.0713251750482</v>
+        <v>367.0713251750481</v>
       </c>
       <c r="Y14" t="n">
-        <v>383.5781631526327</v>
+        <v>383.5781631526326</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H15" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I15" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>164.5870455952069</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>145.9556975147914</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>143.7741871431482</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>142.7612725195103</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.3803314861661</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>108.1865964248024</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>107.9432006883716</v>
       </c>
       <c r="S16" t="n">
-        <v>195.5085560737116</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9484716003303</v>
+        <v>218.9484716003302</v>
       </c>
       <c r="U16" t="n">
-        <v>283.5783516106292</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>249.4778678204071</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.8632228331701</v>
+        <v>216.1998994140807</v>
       </c>
       <c r="X16" t="n">
-        <v>55.41703175978765</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>302.9517465358199</v>
       </c>
       <c r="I17" t="n">
-        <v>80.34006327725879</v>
+        <v>80.34006327725881</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>131.0121193244849</v>
+        <v>131.0121193244844</v>
       </c>
       <c r="T17" t="n">
-        <v>205.9616194252903</v>
+        <v>205.9616194252906</v>
       </c>
       <c r="U17" t="n">
         <v>248.4213528194168</v>
@@ -1938,10 +1938,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H18" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I18" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.535830122859352</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8479960769563</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.9432006883716</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>195.5085560737116</v>
       </c>
       <c r="T19" t="n">
-        <v>218.9484716003304</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>283.5783516106292</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>249.4778678204071</v>
       </c>
       <c r="W19" t="n">
         <v>283.8632228331701</v>
       </c>
       <c r="X19" t="n">
-        <v>223.0498798856163</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.84501969457828</v>
+        <v>215.9248778486739</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>380.0740661600597</v>
       </c>
       <c r="C20" t="n">
-        <v>362.6131162675867</v>
+        <v>362.6131162675848</v>
       </c>
       <c r="D20" t="n">
         <v>352.0232661172621</v>
@@ -2099,7 +2099,7 @@
         <v>302.9517465358199</v>
       </c>
       <c r="I20" t="n">
-        <v>80.34006327725879</v>
+        <v>80.34006327725882</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>367.0713251750482</v>
       </c>
       <c r="Y20" t="n">
-        <v>383.5781631526329</v>
+        <v>383.5781631526327</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H21" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I21" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>123.3553767442835</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.9432006883721</v>
+        <v>107.9432006883717</v>
       </c>
       <c r="S22" t="n">
         <v>195.5085560737116</v>
@@ -2299,13 +2299,13 @@
         <v>249.4778678204071</v>
       </c>
       <c r="W22" t="n">
-        <v>116.2303747073413</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>223.0498798856163</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>215.9248778486739</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>302.9517465358199</v>
       </c>
       <c r="I23" t="n">
-        <v>80.34006327725879</v>
+        <v>80.34006327725882</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>205.9616194252906</v>
       </c>
       <c r="U23" t="n">
-        <v>248.4213528194168</v>
+        <v>248.4213528194165</v>
       </c>
       <c r="V23" t="n">
         <v>325.092482966714</v>
@@ -2384,7 +2384,7 @@
         <v>367.0713251750482</v>
       </c>
       <c r="Y23" t="n">
-        <v>383.5781631526327</v>
+        <v>383.5781631526329</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H24" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I24" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.9432006883719</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>195.5085560737116</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>218.9484716003303</v>
       </c>
       <c r="U25" t="n">
-        <v>283.5783516106292</v>
+        <v>223.8887041731718</v>
       </c>
       <c r="V25" t="n">
         <v>249.4778678204071</v>
       </c>
       <c r="W25" t="n">
-        <v>119.2539684589978</v>
+        <v>283.8632228331701</v>
       </c>
       <c r="X25" t="n">
         <v>223.0498798856163</v>
       </c>
       <c r="Y25" t="n">
-        <v>215.9248778486739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>395.6149533922601</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9961802026462</v>
@@ -2573,7 +2573,7 @@
         <v>305.6115220392408</v>
       </c>
       <c r="I26" t="n">
-        <v>54.36429857881635</v>
+        <v>82.99983878067968</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.6718948279058</v>
+        <v>122.4108024784551</v>
       </c>
       <c r="T26" t="n">
         <v>208.6213949287114</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>357.6023984541903</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H27" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I27" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.91916746058428</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>116.7855078210679</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>137.8722313785139</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.96743598992923</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>169.5327913752691</v>
+        <v>24.76165562620079</v>
       </c>
       <c r="T28" t="n">
         <v>192.9727069018878</v>
@@ -2792,16 +2792,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>351.3520239181351</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>328.7072769222406</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>392.9551778888382</v>
       </c>
       <c r="G29" t="n">
         <v>411.9961802026462</v>
@@ -2810,7 +2810,7 @@
         <v>305.6115220392408</v>
       </c>
       <c r="I29" t="n">
-        <v>82.99983878067965</v>
+        <v>82.99983878067968</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>343.7553359800266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,10 +2886,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H30" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I30" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>17.44675566275009</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>140.5320068819347</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.62721149335009</v>
+        <v>84.62721149335012</v>
       </c>
       <c r="S31" t="n">
-        <v>172.1925668786903</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>195.6324824053087</v>
       </c>
       <c r="U31" t="n">
-        <v>246.048558081603</v>
+        <v>260.2623624156077</v>
       </c>
       <c r="V31" t="n">
         <v>226.1618786253856</v>
@@ -3016,7 +3016,7 @@
         <v>199.7338906905947</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.6088886536523</v>
+        <v>192.6088886536524</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9961802026462</v>
       </c>
       <c r="H32" t="n">
-        <v>265.714889487927</v>
+        <v>305.6115220392408</v>
       </c>
       <c r="I32" t="n">
-        <v>82.99983878067965</v>
+        <v>82.99983878067968</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>133.6718948279058</v>
       </c>
       <c r="T32" t="n">
-        <v>208.6213949287114</v>
+        <v>168.7247623773982</v>
       </c>
       <c r="U32" t="n">
         <v>251.0811283228374</v>
@@ -3123,10 +3123,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H33" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I33" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.0576843011129</v>
       </c>
       <c r="C34" t="n">
-        <v>98.47252521780347</v>
+        <v>98.47252521780345</v>
       </c>
       <c r="D34" t="n">
-        <v>79.84117713738799</v>
+        <v>79.84117713738797</v>
       </c>
       <c r="E34" t="n">
-        <v>77.6596667657448</v>
+        <v>77.65966676574479</v>
       </c>
       <c r="F34" t="n">
-        <v>76.64675214210688</v>
+        <v>76.64675214210686</v>
       </c>
       <c r="G34" t="n">
-        <v>97.73347569955281</v>
+        <v>97.7334756995528</v>
       </c>
       <c r="H34" t="n">
-        <v>80.26581110876266</v>
+        <v>80.26581110876265</v>
       </c>
       <c r="I34" t="n">
         <v>42.07207604739892</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.82868031096817</v>
+        <v>41.82868031096815</v>
       </c>
       <c r="S34" t="n">
         <v>129.3940356963081</v>
       </c>
       <c r="T34" t="n">
-        <v>152.8339512229268</v>
+        <v>152.8339512229267</v>
       </c>
       <c r="U34" t="n">
         <v>217.4638312332256</v>
@@ -3281,10 +3281,10 @@
         <v>411.9961802026462</v>
       </c>
       <c r="H35" t="n">
-        <v>305.6115220392408</v>
+        <v>265.7148894879269</v>
       </c>
       <c r="I35" t="n">
-        <v>82.99983878067965</v>
+        <v>82.99983878067968</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>329.8344681271549</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,10 +3360,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H36" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I36" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.26581110876265</v>
       </c>
       <c r="I37" t="n">
-        <v>42.07207604739891</v>
+        <v>42.07207604739914</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>41.82868031096815</v>
       </c>
       <c r="S37" t="n">
-        <v>129.3940356963077</v>
+        <v>129.3940356963081</v>
       </c>
       <c r="T37" t="n">
         <v>152.8339512229267</v>
       </c>
       <c r="U37" t="n">
-        <v>217.4638312332265</v>
+        <v>217.4638312332254</v>
       </c>
       <c r="V37" t="n">
         <v>183.3633474430036</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>342.8372091121666</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>366.9794131903968</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9961802026462</v>
@@ -3521,7 +3521,7 @@
         <v>305.6115220392408</v>
       </c>
       <c r="I38" t="n">
-        <v>82.99983878067965</v>
+        <v>82.99983878067968</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H39" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I39" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.26581110876265</v>
       </c>
       <c r="I40" t="n">
-        <v>42.07207604739891</v>
+        <v>42.07207604739892</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>152.8339512229267</v>
       </c>
       <c r="U40" t="n">
-        <v>217.4638312332258</v>
+        <v>217.463831233226</v>
       </c>
       <c r="V40" t="n">
         <v>183.3633474430036</v>
@@ -3758,7 +3758,7 @@
         <v>305.6115220392408</v>
       </c>
       <c r="I41" t="n">
-        <v>82.99983878067965</v>
+        <v>43.10320622936589</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>329.834468127154</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,10 +3834,10 @@
         <v>135.5743530313445</v>
       </c>
       <c r="H42" t="n">
-        <v>95.14904327873717</v>
+        <v>95.14904327873718</v>
       </c>
       <c r="I42" t="n">
-        <v>28.48462217093806</v>
+        <v>28.48462217093807</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.057684301113</v>
       </c>
       <c r="C43" t="n">
-        <v>98.47252521780349</v>
+        <v>98.47252521780352</v>
       </c>
       <c r="D43" t="n">
-        <v>79.84117713738802</v>
+        <v>79.84117713738804</v>
       </c>
       <c r="E43" t="n">
-        <v>77.65966676574483</v>
+        <v>77.65966676574486</v>
       </c>
       <c r="F43" t="n">
-        <v>76.64675214210691</v>
+        <v>76.64675214210693</v>
       </c>
       <c r="G43" t="n">
-        <v>97.73347569955284</v>
+        <v>97.73347569955287</v>
       </c>
       <c r="H43" t="n">
-        <v>80.26581110876269</v>
+        <v>80.26581110876272</v>
       </c>
       <c r="I43" t="n">
-        <v>42.07207604739895</v>
+        <v>42.07207604739899</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.8286803109682</v>
+        <v>41.82868031096822</v>
       </c>
       <c r="S43" t="n">
-        <v>129.3940356963081</v>
+        <v>129.3940356963082</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8339512229268</v>
+        <v>152.8339512229265</v>
       </c>
       <c r="U43" t="n">
-        <v>217.4638312332257</v>
+        <v>217.4638312332258</v>
       </c>
       <c r="V43" t="n">
-        <v>183.3633474430036</v>
+        <v>183.3633474430037</v>
       </c>
       <c r="W43" t="n">
-        <v>217.7487024557666</v>
+        <v>217.7487024557667</v>
       </c>
       <c r="X43" t="n">
-        <v>156.9353595082128</v>
+        <v>156.9353595082129</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.8103574712704</v>
+        <v>149.8103574712705</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.6718948279058</v>
+        <v>93.77526227659227</v>
       </c>
       <c r="T44" t="n">
         <v>208.6213949287114</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>329.834468127154</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>111.0576843011129</v>
       </c>
       <c r="C46" t="n">
-        <v>98.47252521780347</v>
+        <v>98.47252521780345</v>
       </c>
       <c r="D46" t="n">
-        <v>79.84117713738799</v>
+        <v>79.84117713738797</v>
       </c>
       <c r="E46" t="n">
-        <v>77.6596667657448</v>
+        <v>77.65966676574479</v>
       </c>
       <c r="F46" t="n">
-        <v>76.64675214210688</v>
+        <v>76.64675214210686</v>
       </c>
       <c r="G46" t="n">
-        <v>97.73347569955281</v>
+        <v>97.7334756995528</v>
       </c>
       <c r="H46" t="n">
-        <v>80.26581110876266</v>
+        <v>80.26581110876265</v>
       </c>
       <c r="I46" t="n">
-        <v>42.07207604739892</v>
+        <v>42.07207604739891</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.82868031096817</v>
+        <v>41.82868031096824</v>
       </c>
       <c r="S46" t="n">
         <v>129.3940356963081</v>
       </c>
       <c r="T46" t="n">
-        <v>152.8339512229268</v>
+        <v>152.8339512229267</v>
       </c>
       <c r="U46" t="n">
         <v>217.4638312332258</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253.9796753218251</v>
+        <v>288.9859744676041</v>
       </c>
       <c r="C2" t="n">
-        <v>253.9796753218251</v>
+        <v>288.9859744676041</v>
       </c>
       <c r="D2" t="n">
-        <v>253.9796753218251</v>
+        <v>288.9859744676041</v>
       </c>
       <c r="E2" t="n">
-        <v>253.9796753218251</v>
+        <v>41.95291147655119</v>
       </c>
       <c r="F2" t="n">
-        <v>247.0341745726216</v>
+        <v>35.00741072734773</v>
       </c>
       <c r="G2" t="n">
-        <v>231.5917824341653</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>231.5917824341653</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
         <v>19.56501858889139</v>
@@ -4358,22 +4358,22 @@
         <v>978.2509294445697</v>
       </c>
       <c r="T2" t="n">
-        <v>978.2509294445697</v>
+        <v>783.05210044971</v>
       </c>
       <c r="U2" t="n">
-        <v>978.2509294445697</v>
+        <v>783.05210044971</v>
       </c>
       <c r="V2" t="n">
-        <v>978.2509294445697</v>
+        <v>536.0190374586571</v>
       </c>
       <c r="W2" t="n">
-        <v>748.0458013039309</v>
+        <v>288.9859744676041</v>
       </c>
       <c r="X2" t="n">
-        <v>501.012738312878</v>
+        <v>288.9859744676041</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.9796753218251</v>
+        <v>288.9859744676041</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.7408911953536</v>
+        <v>295.1432731220078</v>
       </c>
       <c r="C3" t="n">
-        <v>158.2878619142265</v>
+        <v>295.1432731220078</v>
       </c>
       <c r="D3" t="n">
-        <v>158.2878619142265</v>
+        <v>295.1432731220078</v>
       </c>
       <c r="E3" t="n">
-        <v>158.2878619142265</v>
+        <v>135.9058181165523</v>
       </c>
       <c r="F3" t="n">
-        <v>158.2878619142265</v>
+        <v>135.9058181165523</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>135.9058181165523</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>22.61377272892409</v>
       </c>
       <c r="I3" t="n">
         <v>19.56501858889139</v>
@@ -4416,7 +4416,7 @@
         <v>19.56501858889139</v>
       </c>
       <c r="M3" t="n">
-        <v>239.4861551219973</v>
+        <v>261.6821236264224</v>
       </c>
       <c r="N3" t="n">
         <v>481.6032601595283</v>
@@ -4431,28 +4431,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S3" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T3" t="n">
-        <v>675.4225686792215</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="U3" t="n">
-        <v>447.1994755532454</v>
+        <v>750.0278363185936</v>
       </c>
       <c r="V3" t="n">
-        <v>332.7408911953536</v>
+        <v>750.0278363185936</v>
       </c>
       <c r="W3" t="n">
-        <v>332.7408911953536</v>
+        <v>502.9947733275407</v>
       </c>
       <c r="X3" t="n">
-        <v>332.7408911953536</v>
+        <v>295.1432731220078</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.7408911953536</v>
+        <v>295.1432731220078</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="F4" t="n">
         <v>19.56501858889139</v>
@@ -4504,34 +4504,34 @@
         <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>156.0916735427112</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>156.0916735427112</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>521.1660470154206</v>
+        <v>559.8069522565825</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1660470154206</v>
+        <v>559.8069522565825</v>
       </c>
       <c r="D5" t="n">
-        <v>521.1660470154206</v>
+        <v>559.8069522565825</v>
       </c>
       <c r="E5" t="n">
-        <v>521.1660470154206</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="F5" t="n">
-        <v>514.2205462662172</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G5" t="n">
-        <v>248.3195018705944</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H5" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I5" t="n">
         <v>21.05936271613333</v>
@@ -4574,10 +4574,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O5" t="n">
         <v>950.1371873885138</v>
@@ -4589,28 +4589,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U5" t="n">
-        <v>1052.968135806666</v>
+        <v>825.7079966522053</v>
       </c>
       <c r="V5" t="n">
-        <v>1052.968135806666</v>
+        <v>559.8069522565825</v>
       </c>
       <c r="W5" t="n">
-        <v>1052.968135806666</v>
+        <v>559.8069522565825</v>
       </c>
       <c r="X5" t="n">
-        <v>787.0670914110435</v>
+        <v>559.8069522565825</v>
       </c>
       <c r="Y5" t="n">
-        <v>521.1660470154206</v>
+        <v>559.8069522565825</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.1904780456128</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="C6" t="n">
-        <v>111.1904780456128</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="D6" t="n">
-        <v>111.1904780456128</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613333</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613333</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613333</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I6" t="n">
         <v>21.05936271613333</v>
@@ -4650,46 +4650,46 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L6" t="n">
-        <v>21.05936271613333</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M6" t="n">
-        <v>264.2940185443782</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N6" t="n">
-        <v>524.9036321565281</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O6" t="n">
-        <v>785.3166962490202</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>782.4144152406835</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T6" t="n">
-        <v>782.4144152406835</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="U6" t="n">
-        <v>554.1940864828883</v>
+        <v>652.2591996415122</v>
       </c>
       <c r="V6" t="n">
-        <v>319.0419782511456</v>
+        <v>417.1070914097695</v>
       </c>
       <c r="W6" t="n">
-        <v>319.0419782511456</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="X6" t="n">
-        <v>111.1904780456128</v>
+        <v>162.8697346815678</v>
       </c>
       <c r="Y6" t="n">
-        <v>111.1904780456128</v>
+        <v>162.8697346815678</v>
       </c>
     </row>
     <row r="7">
@@ -4747,10 +4747,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T7" t="n">
         <v>21.05936271613333</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1374.814428194113</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.851911253702</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.851911253702</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>1005.851911253702</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2412.208625457095</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2412.208625457095</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.414268258235</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,10 +4887,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>557.4050153476338</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>343.1165921657965</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5027,58 +5027,58 @@
         <v>1275.825696565186</v>
       </c>
       <c r="F11" t="n">
-        <v>905.1394206152895</v>
+        <v>864.8397917755788</v>
       </c>
       <c r="G11" t="n">
-        <v>488.9816628348387</v>
+        <v>448.682033995128</v>
       </c>
       <c r="H11" t="n">
-        <v>180.2831557244945</v>
+        <v>139.9835268847837</v>
       </c>
       <c r="I11" t="n">
-        <v>96.44493473390898</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J11" t="n">
         <v>362.4486577866846</v>
       </c>
       <c r="K11" t="n">
-        <v>881.8640885387249</v>
+        <v>881.8640885387244</v>
       </c>
       <c r="L11" t="n">
-        <v>1578.521487783062</v>
+        <v>1578.521487783061</v>
       </c>
       <c r="M11" t="n">
-        <v>2370.293621425557</v>
+        <v>2370.293621425556</v>
       </c>
       <c r="N11" t="n">
-        <v>3160.245458416856</v>
+        <v>3160.245458416855</v>
       </c>
       <c r="O11" t="n">
-        <v>3860.986939860263</v>
+        <v>3860.986939860262</v>
       </c>
       <c r="P11" t="n">
-        <v>4421.379199137525</v>
+        <v>4421.379199137524</v>
       </c>
       <c r="Q11" t="n">
-        <v>4764.988687984365</v>
+        <v>4764.988687984364</v>
       </c>
       <c r="R11" t="n">
-        <v>4822.246736695448</v>
+        <v>4822.246736695447</v>
       </c>
       <c r="S11" t="n">
-        <v>4687.224620707664</v>
+        <v>4687.224620707663</v>
       </c>
       <c r="T11" t="n">
-        <v>4476.495938961491</v>
+        <v>4476.49593896149</v>
       </c>
       <c r="U11" t="n">
-        <v>4222.878637625292</v>
+        <v>4222.878637625291</v>
       </c>
       <c r="V11" t="n">
-        <v>3891.815750281721</v>
+        <v>3891.81575028172</v>
       </c>
       <c r="W11" t="n">
-        <v>3539.047095011607</v>
+        <v>3539.047095011606</v>
       </c>
       <c r="X11" t="n">
         <v>3165.581336750527</v>
@@ -5115,31 +5115,31 @@
         <v>125.2172803611191</v>
       </c>
       <c r="I12" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J12" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K12" t="n">
-        <v>282.7127983605502</v>
+        <v>669.3635079900076</v>
       </c>
       <c r="L12" t="n">
-        <v>892.9682096874527</v>
+        <v>912.4869774664855</v>
       </c>
       <c r="M12" t="n">
-        <v>1196.038699345552</v>
+        <v>1215.557467124585</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.756228744182</v>
+        <v>1541.057975745294</v>
       </c>
       <c r="O12" t="n">
-        <v>1804.305807247367</v>
+        <v>1816.607554248478</v>
       </c>
       <c r="P12" t="n">
-        <v>2321.403711586392</v>
+        <v>2333.705458587503</v>
       </c>
       <c r="Q12" t="n">
-        <v>2614.372197138722</v>
+        <v>2623.960873679312</v>
       </c>
       <c r="R12" t="n">
         <v>2623.960873679312</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.44493473390898</v>
+        <v>972.8123930209302</v>
       </c>
       <c r="C13" t="n">
-        <v>96.44493473390898</v>
+        <v>803.8762100930234</v>
       </c>
       <c r="D13" t="n">
-        <v>96.44493473390898</v>
+        <v>653.7595706806876</v>
       </c>
       <c r="E13" t="n">
-        <v>96.44493473390898</v>
+        <v>505.8464770982945</v>
       </c>
       <c r="F13" t="n">
-        <v>96.44493473390898</v>
+        <v>358.956529600384</v>
       </c>
       <c r="G13" t="n">
-        <v>96.44493473390897</v>
+        <v>358.956529600384</v>
       </c>
       <c r="H13" t="n">
-        <v>96.44493473390897</v>
+        <v>208.4109669846396</v>
       </c>
       <c r="I13" t="n">
-        <v>96.44493473390898</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J13" t="n">
         <v>107.8335084296665</v>
       </c>
       <c r="K13" t="n">
-        <v>256.3852701569851</v>
+        <v>256.385270156985</v>
       </c>
       <c r="L13" t="n">
-        <v>502.0068151894127</v>
+        <v>502.0068151894126</v>
       </c>
       <c r="M13" t="n">
-        <v>771.3694188387801</v>
+        <v>771.3694188387799</v>
       </c>
       <c r="N13" t="n">
-        <v>1039.761798250241</v>
+        <v>1039.76179825024</v>
       </c>
       <c r="O13" t="n">
         <v>1271.649305687651</v>
@@ -5218,31 +5218,31 @@
         <v>1446.548445876271</v>
       </c>
       <c r="Q13" t="n">
-        <v>1484.204464652278</v>
+        <v>1484.204464652277</v>
       </c>
       <c r="R13" t="n">
         <v>1372.48428668077</v>
       </c>
       <c r="S13" t="n">
-        <v>1172.314254784677</v>
+        <v>1196.659107267144</v>
       </c>
       <c r="T13" t="n">
-        <v>948.4675405384635</v>
+        <v>972.8123930209302</v>
       </c>
       <c r="U13" t="n">
-        <v>659.3381192111402</v>
+        <v>972.8123930209302</v>
       </c>
       <c r="V13" t="n">
-        <v>404.6536310052534</v>
+        <v>972.8123930209302</v>
       </c>
       <c r="W13" t="n">
-        <v>115.2364609682928</v>
+        <v>972.8123930209302</v>
       </c>
       <c r="X13" t="n">
-        <v>96.44493473390898</v>
+        <v>972.8123930209302</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.44493473390898</v>
+        <v>972.8123930209302</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2410.335300091772</v>
+        <v>2410.335300091771</v>
       </c>
       <c r="C14" t="n">
         <v>2044.059425074007</v>
@@ -5264,28 +5264,28 @@
         <v>1305.378757714307</v>
       </c>
       <c r="F14" t="n">
-        <v>897.0794948473472</v>
+        <v>897.0794948473471</v>
       </c>
       <c r="G14" t="n">
         <v>483.6083789895438</v>
       </c>
       <c r="H14" t="n">
-        <v>177.596513801847</v>
+        <v>177.5965138018471</v>
       </c>
       <c r="I14" t="n">
-        <v>96.44493473390898</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J14" t="n">
-        <v>362.4486577866842</v>
+        <v>362.4486577866846</v>
       </c>
       <c r="K14" t="n">
-        <v>881.8640885387247</v>
+        <v>881.8640885387249</v>
       </c>
       <c r="L14" t="n">
         <v>1578.521487783061</v>
       </c>
       <c r="M14" t="n">
-        <v>2370.293621425556</v>
+        <v>2370.293621425557</v>
       </c>
       <c r="N14" t="n">
         <v>3160.245458416855</v>
@@ -5294,31 +5294,31 @@
         <v>3860.986939860262</v>
       </c>
       <c r="P14" t="n">
-        <v>4421.379199137525</v>
+        <v>4421.379199137524</v>
       </c>
       <c r="Q14" t="n">
-        <v>4764.988687984365</v>
+        <v>4764.988687984364</v>
       </c>
       <c r="R14" t="n">
-        <v>4822.246736695448</v>
+        <v>4822.246736695447</v>
       </c>
       <c r="S14" t="n">
-        <v>4689.911262630312</v>
+        <v>4689.911262630311</v>
       </c>
       <c r="T14" t="n">
-        <v>4481.869222806787</v>
+        <v>4481.869222806786</v>
       </c>
       <c r="U14" t="n">
-        <v>4230.938563393233</v>
+        <v>4230.938563393232</v>
       </c>
       <c r="V14" t="n">
-        <v>3902.56231797231</v>
+        <v>3902.562317972309</v>
       </c>
       <c r="W14" t="n">
-        <v>3552.480304624843</v>
+        <v>3552.480304624842</v>
       </c>
       <c r="X14" t="n">
-        <v>3181.701188286411</v>
+        <v>3181.70118828641</v>
       </c>
       <c r="Y14" t="n">
         <v>2794.248498233246</v>
@@ -5352,31 +5352,31 @@
         <v>125.2172803611191</v>
       </c>
       <c r="I15" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J15" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K15" t="n">
-        <v>282.7127983605502</v>
+        <v>666.6504375294872</v>
       </c>
       <c r="L15" t="n">
-        <v>525.8362678370282</v>
+        <v>909.7739070059652</v>
       </c>
       <c r="M15" t="n">
-        <v>828.9067574951275</v>
+        <v>1212.844396664064</v>
       </c>
       <c r="N15" t="n">
-        <v>1154.407266115837</v>
+        <v>1538.344905284773</v>
       </c>
       <c r="O15" t="n">
-        <v>1804.305807247367</v>
+        <v>1813.894483787958</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.403711586392</v>
+        <v>2330.992388126982</v>
       </c>
       <c r="Q15" t="n">
-        <v>2614.372197138722</v>
+        <v>2623.960873679312</v>
       </c>
       <c r="R15" t="n">
         <v>2623.960873679312</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.44493473390897</v>
+        <v>956.6925414850456</v>
       </c>
       <c r="C16" t="n">
-        <v>96.44493473390897</v>
+        <v>790.4430004797861</v>
       </c>
       <c r="D16" t="n">
-        <v>96.44493473390897</v>
+        <v>643.0130029900978</v>
       </c>
       <c r="E16" t="n">
-        <v>96.44493473390897</v>
+        <v>497.7865513303521</v>
       </c>
       <c r="F16" t="n">
-        <v>96.44493473390897</v>
+        <v>353.5832457550893</v>
       </c>
       <c r="G16" t="n">
-        <v>96.44493473390897</v>
+        <v>353.5832457550893</v>
       </c>
       <c r="H16" t="n">
-        <v>96.44493473390897</v>
+        <v>205.7243250619921</v>
       </c>
       <c r="I16" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J16" t="n">
-        <v>110.4666861780531</v>
+        <v>110.4666861780532</v>
       </c>
       <c r="K16" t="n">
-        <v>261.6516256537584</v>
+        <v>261.6516256537585</v>
       </c>
       <c r="L16" t="n">
-        <v>509.9063484345725</v>
+        <v>509.9063484345728</v>
       </c>
       <c r="M16" t="n">
-        <v>781.9021298323266</v>
+        <v>781.9021298323269</v>
       </c>
       <c r="N16" t="n">
         <v>1052.927686992174</v>
@@ -5461,25 +5461,25 @@
         <v>1396.236350590511</v>
       </c>
       <c r="S16" t="n">
-        <v>1198.752960617065</v>
+        <v>1396.236350590511</v>
       </c>
       <c r="T16" t="n">
-        <v>977.5928882934991</v>
+        <v>1175.076278266945</v>
       </c>
       <c r="U16" t="n">
-        <v>691.1501088888231</v>
+        <v>1175.076278266945</v>
       </c>
       <c r="V16" t="n">
-        <v>439.1522626055835</v>
+        <v>1175.076278266945</v>
       </c>
       <c r="W16" t="n">
-        <v>152.4217344912702</v>
+        <v>956.6925414850456</v>
       </c>
       <c r="X16" t="n">
-        <v>96.44493473390897</v>
+        <v>956.6925414850456</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.44493473390897</v>
+        <v>956.6925414850456</v>
       </c>
     </row>
     <row r="17">
@@ -5504,40 +5504,40 @@
         <v>897.0794948473474</v>
       </c>
       <c r="G17" t="n">
-        <v>483.6083789895441</v>
+        <v>483.608378989544</v>
       </c>
       <c r="H17" t="n">
         <v>177.5965138018472</v>
       </c>
       <c r="I17" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J17" t="n">
-        <v>362.4486577866845</v>
+        <v>362.4486577866837</v>
       </c>
       <c r="K17" t="n">
-        <v>881.8640885387249</v>
+        <v>881.8640885387244</v>
       </c>
       <c r="L17" t="n">
         <v>1578.521487783061</v>
       </c>
       <c r="M17" t="n">
-        <v>2370.293621425557</v>
+        <v>2370.293621425556</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.245458416855</v>
+        <v>3160.245458416854</v>
       </c>
       <c r="O17" t="n">
-        <v>3860.986939860262</v>
+        <v>3860.986939860261</v>
       </c>
       <c r="P17" t="n">
-        <v>4421.379199137525</v>
+        <v>4421.379199137524</v>
       </c>
       <c r="Q17" t="n">
-        <v>4764.988687984365</v>
+        <v>4764.988687984364</v>
       </c>
       <c r="R17" t="n">
-        <v>4822.246736695448</v>
+        <v>4822.246736695447</v>
       </c>
       <c r="S17" t="n">
         <v>4689.911262630311</v>
@@ -5558,7 +5558,7 @@
         <v>3181.701188286411</v>
       </c>
       <c r="Y17" t="n">
-        <v>2794.248498233247</v>
+        <v>2794.248498233246</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.2172803611191</v>
       </c>
       <c r="I18" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J18" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K18" t="n">
-        <v>282.7127983605502</v>
+        <v>669.3635079900076</v>
       </c>
       <c r="L18" t="n">
-        <v>525.8362678370282</v>
+        <v>912.4869774664855</v>
       </c>
       <c r="M18" t="n">
-        <v>828.9067574951275</v>
+        <v>1215.557467124585</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.756228744182</v>
+        <v>1541.057975745294</v>
       </c>
       <c r="O18" t="n">
-        <v>1804.305807247367</v>
+        <v>1816.607554248478</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.403711586392</v>
+        <v>2333.705458587503</v>
       </c>
       <c r="Q18" t="n">
         <v>2614.372197138722</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.44493473390897</v>
+        <v>261.9479610742688</v>
       </c>
       <c r="C19" t="n">
-        <v>96.44493473390897</v>
+        <v>261.9479610742688</v>
       </c>
       <c r="D19" t="n">
-        <v>96.44493473390897</v>
+        <v>261.9479610742688</v>
       </c>
       <c r="E19" t="n">
-        <v>96.44493473390897</v>
+        <v>261.9479610742688</v>
       </c>
       <c r="F19" t="n">
-        <v>96.44493473390897</v>
+        <v>261.9479610742688</v>
       </c>
       <c r="G19" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="H19" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="I19" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390894</v>
       </c>
       <c r="J19" t="n">
-        <v>110.4666861780531</v>
+        <v>110.4666861780532</v>
       </c>
       <c r="K19" t="n">
         <v>261.6516256537584</v>
       </c>
       <c r="L19" t="n">
-        <v>509.9063484345727</v>
+        <v>509.9063484345729</v>
       </c>
       <c r="M19" t="n">
-        <v>781.9021298323268</v>
+        <v>781.902129832327</v>
       </c>
       <c r="N19" t="n">
         <v>1052.927686992174</v>
@@ -5695,28 +5695,28 @@
         <v>1505.269886639371</v>
       </c>
       <c r="R19" t="n">
-        <v>1396.236350590511</v>
+        <v>1505.269886639371</v>
       </c>
       <c r="S19" t="n">
-        <v>1198.752960617065</v>
+        <v>1307.786496665925</v>
       </c>
       <c r="T19" t="n">
-        <v>977.5928882934988</v>
+        <v>1307.786496665925</v>
       </c>
       <c r="U19" t="n">
-        <v>691.1501088888228</v>
+        <v>1021.343717261249</v>
       </c>
       <c r="V19" t="n">
-        <v>691.1501088888228</v>
+        <v>769.3458709780095</v>
       </c>
       <c r="W19" t="n">
-        <v>404.4195807745095</v>
+        <v>482.6153428636964</v>
       </c>
       <c r="X19" t="n">
-        <v>179.1166717991396</v>
+        <v>482.6153428636964</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.44493473390897</v>
+        <v>264.5094056428136</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2410.335300091772</v>
+        <v>2410.33530009177</v>
       </c>
       <c r="C20" t="n">
         <v>2044.059425074008</v>
@@ -5747,19 +5747,19 @@
         <v>177.5965138018472</v>
       </c>
       <c r="I20" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="J20" t="n">
         <v>362.4486577866843</v>
       </c>
       <c r="K20" t="n">
-        <v>881.8640885387247</v>
+        <v>881.8640885387246</v>
       </c>
       <c r="L20" t="n">
         <v>1578.521487783061</v>
       </c>
       <c r="M20" t="n">
-        <v>2370.293621425557</v>
+        <v>2370.293621425556</v>
       </c>
       <c r="N20" t="n">
         <v>3160.245458416855</v>
@@ -5768,34 +5768,34 @@
         <v>3860.986939860262</v>
       </c>
       <c r="P20" t="n">
-        <v>4421.379199137525</v>
+        <v>4421.379199137523</v>
       </c>
       <c r="Q20" t="n">
-        <v>4764.988687984365</v>
+        <v>4764.988687984363</v>
       </c>
       <c r="R20" t="n">
-        <v>4822.246736695448</v>
+        <v>4822.246736695446</v>
       </c>
       <c r="S20" t="n">
-        <v>4689.911262630311</v>
+        <v>4689.911262630309</v>
       </c>
       <c r="T20" t="n">
-        <v>4481.869222806786</v>
+        <v>4481.869222806784</v>
       </c>
       <c r="U20" t="n">
-        <v>4230.938563393233</v>
+        <v>4230.938563393232</v>
       </c>
       <c r="V20" t="n">
-        <v>3902.56231797231</v>
+        <v>3902.562317972308</v>
       </c>
       <c r="W20" t="n">
-        <v>3552.480304624843</v>
+        <v>3552.480304624842</v>
       </c>
       <c r="X20" t="n">
-        <v>3181.701188286411</v>
+        <v>3181.701188286409</v>
       </c>
       <c r="Y20" t="n">
-        <v>2794.248498233246</v>
+        <v>2794.248498233244</v>
       </c>
     </row>
     <row r="21">
@@ -5814,37 +5814,37 @@
         <v>664.0432290064389</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8057740009834</v>
+        <v>504.8057740009833</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2712160278684</v>
+        <v>358.2712160278683</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3274250871163</v>
+        <v>221.3274250871162</v>
       </c>
       <c r="H21" t="n">
         <v>125.2172803611191</v>
       </c>
       <c r="I21" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="J21" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K21" t="n">
-        <v>282.7127983605502</v>
+        <v>407.5429233475548</v>
       </c>
       <c r="L21" t="n">
-        <v>525.8362678370282</v>
+        <v>650.6663928240328</v>
       </c>
       <c r="M21" t="n">
-        <v>828.9067574951275</v>
+        <v>953.7368824821319</v>
       </c>
       <c r="N21" t="n">
-        <v>1154.407266115837</v>
+        <v>1454.110673613758</v>
       </c>
       <c r="O21" t="n">
-        <v>1804.305807247367</v>
+        <v>2119.583948200905</v>
       </c>
       <c r="P21" t="n">
         <v>2321.403711586392</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="C22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="D22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="E22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="F22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="G22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="H22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="I22" t="n">
-        <v>96.44493473390897</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="J22" t="n">
-        <v>110.4666861780532</v>
+        <v>110.4666861780531</v>
       </c>
       <c r="K22" t="n">
-        <v>261.6516256537585</v>
+        <v>261.6516256537583</v>
       </c>
       <c r="L22" t="n">
-        <v>509.9063484345728</v>
+        <v>509.9063484345726</v>
       </c>
       <c r="M22" t="n">
-        <v>781.9021298323268</v>
+        <v>781.9021298323266</v>
       </c>
       <c r="N22" t="n">
         <v>1052.927686992174</v>
@@ -5926,7 +5926,7 @@
         <v>1287.448372177971</v>
       </c>
       <c r="P22" t="n">
-        <v>1464.980690114978</v>
+        <v>1464.980690114977</v>
       </c>
       <c r="Q22" t="n">
         <v>1505.269886639371</v>
@@ -5938,22 +5938,22 @@
         <v>1198.752960617065</v>
       </c>
       <c r="T22" t="n">
-        <v>977.5928882934988</v>
+        <v>977.5928882934987</v>
       </c>
       <c r="U22" t="n">
-        <v>691.1501088888228</v>
+        <v>691.1501088888227</v>
       </c>
       <c r="V22" t="n">
-        <v>439.1522626055833</v>
+        <v>439.1522626055831</v>
       </c>
       <c r="W22" t="n">
-        <v>321.747843709279</v>
+        <v>439.1522626055831</v>
       </c>
       <c r="X22" t="n">
-        <v>96.44493473390897</v>
+        <v>439.1522626055831</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.44493473390897</v>
+        <v>221.0463253847004</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>362.4486577866846</v>
       </c>
       <c r="K23" t="n">
-        <v>881.8640885387249</v>
+        <v>881.864088538725</v>
       </c>
       <c r="L23" t="n">
         <v>1578.521487783061</v>
@@ -6002,7 +6002,7 @@
         <v>3160.245458416855</v>
       </c>
       <c r="O23" t="n">
-        <v>3860.986939860263</v>
+        <v>3860.986939860262</v>
       </c>
       <c r="P23" t="n">
         <v>4421.379199137525</v>
@@ -6066,22 +6066,22 @@
         <v>96.44493473390897</v>
       </c>
       <c r="J24" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K24" t="n">
-        <v>282.7127983605502</v>
+        <v>407.5429233475549</v>
       </c>
       <c r="L24" t="n">
-        <v>525.8362678370282</v>
+        <v>650.6663928240329</v>
       </c>
       <c r="M24" t="n">
-        <v>828.9067574951275</v>
+        <v>1128.610164993049</v>
       </c>
       <c r="N24" t="n">
-        <v>1154.407266115837</v>
+        <v>1454.110673613758</v>
       </c>
       <c r="O24" t="n">
-        <v>1804.305807247367</v>
+        <v>2119.583948200905</v>
       </c>
       <c r="P24" t="n">
         <v>2321.403711586392</v>
@@ -6151,10 +6151,10 @@
         <v>261.6516256537584</v>
       </c>
       <c r="L25" t="n">
-        <v>509.9063484345727</v>
+        <v>509.9063484345726</v>
       </c>
       <c r="M25" t="n">
-        <v>781.9021298323269</v>
+        <v>781.9021298323268</v>
       </c>
       <c r="N25" t="n">
         <v>1052.927686992174</v>
@@ -6163,31 +6163,31 @@
         <v>1287.448372177971</v>
       </c>
       <c r="P25" t="n">
-        <v>1464.980690114978</v>
+        <v>1464.980690114977</v>
       </c>
       <c r="Q25" t="n">
         <v>1505.269886639371</v>
       </c>
       <c r="R25" t="n">
-        <v>1396.236350590511</v>
+        <v>1505.269886639371</v>
       </c>
       <c r="S25" t="n">
-        <v>1198.752960617065</v>
+        <v>1307.786496665925</v>
       </c>
       <c r="T25" t="n">
-        <v>1198.752960617065</v>
+        <v>1086.626424342359</v>
       </c>
       <c r="U25" t="n">
-        <v>912.3101812123889</v>
+        <v>860.4762181068319</v>
       </c>
       <c r="V25" t="n">
-        <v>660.3123349291494</v>
+        <v>608.4783718235924</v>
       </c>
       <c r="W25" t="n">
-        <v>539.8537809301617</v>
+        <v>321.747843709279</v>
       </c>
       <c r="X25" t="n">
-        <v>314.5508719547917</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="Y25" t="n">
         <v>96.44493473390897</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2388.842164710592</v>
+        <v>2429.141793550304</v>
       </c>
       <c r="C26" t="n">
-        <v>2019.87964777018</v>
+        <v>2060.179276609892</v>
       </c>
       <c r="D26" t="n">
-        <v>1661.613949163429</v>
+        <v>1701.913578003141</v>
       </c>
       <c r="E26" t="n">
-        <v>1275.825696565185</v>
+        <v>1316.125325404897</v>
       </c>
       <c r="F26" t="n">
-        <v>876.2146325325991</v>
+        <v>905.1394206152895</v>
       </c>
       <c r="G26" t="n">
-        <v>460.0568747521485</v>
+        <v>488.9816628348387</v>
       </c>
       <c r="H26" t="n">
-        <v>151.3583676418043</v>
+        <v>180.2831557244945</v>
       </c>
       <c r="I26" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J26" t="n">
-        <v>362.4486577866842</v>
+        <v>362.4486577866846</v>
       </c>
       <c r="K26" t="n">
-        <v>881.8640885387246</v>
+        <v>881.8640885387254</v>
       </c>
       <c r="L26" t="n">
-        <v>1578.521487783061</v>
+        <v>1578.521487783062</v>
       </c>
       <c r="M26" t="n">
         <v>2370.293621425557</v>
       </c>
       <c r="N26" t="n">
-        <v>3160.245458416855</v>
+        <v>3160.245458416856</v>
       </c>
       <c r="O26" t="n">
-        <v>3860.986939860261</v>
+        <v>3860.986939860263</v>
       </c>
       <c r="P26" t="n">
-        <v>4421.379199137524</v>
+        <v>4421.379199137525</v>
       </c>
       <c r="Q26" t="n">
-        <v>4764.988687984364</v>
+        <v>4764.988687984365</v>
       </c>
       <c r="R26" t="n">
-        <v>4822.246736695447</v>
+        <v>4822.246736695448</v>
       </c>
       <c r="S26" t="n">
-        <v>4687.224620707663</v>
+        <v>4698.599461464685</v>
       </c>
       <c r="T26" t="n">
-        <v>4476.49593896149</v>
+        <v>4487.870779718512</v>
       </c>
       <c r="U26" t="n">
-        <v>4222.87863762529</v>
+        <v>4234.253478382312</v>
       </c>
       <c r="V26" t="n">
-        <v>3891.815750281719</v>
+        <v>3903.190591038741</v>
       </c>
       <c r="W26" t="n">
-        <v>3539.047095011605</v>
+        <v>3550.421935768627</v>
       </c>
       <c r="X26" t="n">
-        <v>3165.581336750525</v>
+        <v>3176.956177507547</v>
       </c>
       <c r="Y26" t="n">
-        <v>2775.442004774713</v>
+        <v>2815.741633614426</v>
       </c>
     </row>
     <row r="27">
@@ -6288,37 +6288,37 @@
         <v>664.0432290064389</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8057740009833</v>
+        <v>504.8057740009834</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2712160278683</v>
+        <v>358.2712160278684</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3274250871162</v>
+        <v>221.3274250871163</v>
       </c>
       <c r="H27" t="n">
         <v>125.2172803611191</v>
       </c>
       <c r="I27" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J27" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K27" t="n">
-        <v>282.7127983605502</v>
+        <v>669.3635079900077</v>
       </c>
       <c r="L27" t="n">
-        <v>525.8362678370282</v>
+        <v>912.4869774664858</v>
       </c>
       <c r="M27" t="n">
-        <v>828.9067574951275</v>
+        <v>1215.557467124585</v>
       </c>
       <c r="N27" t="n">
-        <v>1154.407266115837</v>
+        <v>1541.057975745294</v>
       </c>
       <c r="O27" t="n">
-        <v>1804.305807247367</v>
+        <v>1816.607554248478</v>
       </c>
       <c r="P27" t="n">
         <v>2321.403711586392</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.44493473390894</v>
+        <v>353.6749743294463</v>
       </c>
       <c r="C28" t="n">
-        <v>96.44493473390894</v>
+        <v>353.6749743294463</v>
       </c>
       <c r="D28" t="n">
-        <v>96.44493473390894</v>
+        <v>353.6749743294463</v>
       </c>
       <c r="E28" t="n">
-        <v>96.44493473390894</v>
+        <v>353.6749743294463</v>
       </c>
       <c r="F28" t="n">
-        <v>96.44493473390894</v>
+        <v>235.709814914226</v>
       </c>
       <c r="G28" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="H28" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="I28" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J28" t="n">
         <v>136.1826932295112</v>
       </c>
       <c r="K28" t="n">
-        <v>313.0836397566744</v>
+        <v>313.0836397566745</v>
       </c>
       <c r="L28" t="n">
-        <v>587.0543695889467</v>
+        <v>587.0543695889468</v>
       </c>
       <c r="M28" t="n">
-        <v>884.7661580381587</v>
+        <v>884.7661580381589</v>
       </c>
       <c r="N28" t="n">
         <v>1181.507722249464</v>
@@ -6400,34 +6400,34 @@
         <v>1441.744414486719</v>
       </c>
       <c r="P28" t="n">
-        <v>1644.992739475183</v>
+        <v>1644.992739475184</v>
       </c>
       <c r="Q28" t="n">
         <v>1710.997943051035</v>
       </c>
       <c r="R28" t="n">
-        <v>1628.202553162218</v>
+        <v>1710.997943051035</v>
       </c>
       <c r="S28" t="n">
-        <v>1456.957309348815</v>
+        <v>1685.986169691236</v>
       </c>
       <c r="T28" t="n">
-        <v>1262.035383185291</v>
+        <v>1491.064243527713</v>
       </c>
       <c r="U28" t="n">
-        <v>1001.830749940659</v>
+        <v>1230.85961028308</v>
       </c>
       <c r="V28" t="n">
-        <v>776.0710498174618</v>
+        <v>1005.099910159884</v>
       </c>
       <c r="W28" t="n">
-        <v>515.5786678631914</v>
+        <v>744.6075282056132</v>
       </c>
       <c r="X28" t="n">
-        <v>316.5139050478642</v>
+        <v>545.5427653902861</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.6461139870244</v>
+        <v>353.6749743294463</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2415.080310870635</v>
+        <v>2388.842164710591</v>
       </c>
       <c r="C29" t="n">
-        <v>2060.179276609892</v>
+        <v>2019.879647770179</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.913578003141</v>
+        <v>1687.852095323471</v>
       </c>
       <c r="E29" t="n">
-        <v>1316.125325404897</v>
+        <v>1302.063842725227</v>
       </c>
       <c r="F29" t="n">
         <v>905.1394206152894</v>
@@ -6458,55 +6458,55 @@
         <v>180.2831557244945</v>
       </c>
       <c r="I29" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="J29" t="n">
-        <v>362.4486577866842</v>
+        <v>362.4486577866843</v>
       </c>
       <c r="K29" t="n">
         <v>881.8640885387246</v>
       </c>
       <c r="L29" t="n">
-        <v>1578.521487783061</v>
+        <v>1578.52148778306</v>
       </c>
       <c r="M29" t="n">
-        <v>2370.293621425557</v>
+        <v>2370.293621425555</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.245458416855</v>
+        <v>3160.245458416854</v>
       </c>
       <c r="O29" t="n">
-        <v>3860.986939860261</v>
+        <v>3860.98693986026</v>
       </c>
       <c r="P29" t="n">
-        <v>4421.379199137524</v>
+        <v>4421.379199137523</v>
       </c>
       <c r="Q29" t="n">
-        <v>4764.988687984364</v>
+        <v>4764.988687984363</v>
       </c>
       <c r="R29" t="n">
-        <v>4822.246736695447</v>
+        <v>4822.246736695446</v>
       </c>
       <c r="S29" t="n">
-        <v>4687.224620707663</v>
+        <v>4687.224620707662</v>
       </c>
       <c r="T29" t="n">
-        <v>4476.49593896149</v>
+        <v>4476.495938961489</v>
       </c>
       <c r="U29" t="n">
-        <v>4222.87863762529</v>
+        <v>4222.878637625289</v>
       </c>
       <c r="V29" t="n">
-        <v>3891.815750281719</v>
+        <v>3891.815750281718</v>
       </c>
       <c r="W29" t="n">
-        <v>3539.047095011605</v>
+        <v>3539.047095011604</v>
       </c>
       <c r="X29" t="n">
-        <v>3191.819482910568</v>
+        <v>3165.581336750524</v>
       </c>
       <c r="Y29" t="n">
-        <v>2801.680150934757</v>
+        <v>2775.442004774713</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.2172803611191</v>
       </c>
       <c r="I30" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="J30" t="n">
-        <v>136.3514252061986</v>
+        <v>258.4684797326828</v>
       </c>
       <c r="K30" t="n">
-        <v>282.7127983605502</v>
+        <v>666.6504375294871</v>
       </c>
       <c r="L30" t="n">
-        <v>525.8362678370282</v>
+        <v>909.7739070059652</v>
       </c>
       <c r="M30" t="n">
-        <v>828.9067574951275</v>
+        <v>1212.844396664064</v>
       </c>
       <c r="N30" t="n">
-        <v>1154.407266115837</v>
+        <v>1538.344905284773</v>
       </c>
       <c r="O30" t="n">
-        <v>1804.305807247367</v>
+        <v>1813.894483787958</v>
       </c>
       <c r="P30" t="n">
-        <v>2321.403711586392</v>
+        <v>2330.992388126982</v>
       </c>
       <c r="Q30" t="n">
-        <v>2614.372197138722</v>
+        <v>2623.960873679312</v>
       </c>
       <c r="R30" t="n">
         <v>2623.960873679312</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.44493473390894</v>
+        <v>256.0194423548028</v>
       </c>
       <c r="C31" t="n">
-        <v>96.44493473390894</v>
+        <v>256.0194423548028</v>
       </c>
       <c r="D31" t="n">
-        <v>96.44493473390894</v>
+        <v>256.0194423548028</v>
       </c>
       <c r="E31" t="n">
-        <v>96.44493473390894</v>
+        <v>256.0194423548028</v>
       </c>
       <c r="F31" t="n">
-        <v>96.44493473390894</v>
+        <v>238.3964568368733</v>
       </c>
       <c r="G31" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="H31" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="I31" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390892</v>
       </c>
       <c r="J31" t="n">
-        <v>133.5495154811246</v>
+        <v>133.5495154811247</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8172842599012</v>
+        <v>307.8172842599013</v>
       </c>
       <c r="L31" t="n">
         <v>579.1548363437869</v>
       </c>
       <c r="M31" t="n">
-        <v>874.2334470446124</v>
+        <v>874.233447044612</v>
       </c>
       <c r="N31" t="n">
         <v>1168.341833507531</v>
       </c>
       <c r="O31" t="n">
-        <v>1425.9453479964</v>
+        <v>1425.945347996399</v>
       </c>
       <c r="P31" t="n">
         <v>1626.560495236477</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.932521063943</v>
+        <v>1689.932521063942</v>
       </c>
       <c r="R31" t="n">
-        <v>1604.450489252478</v>
+        <v>1604.450489252477</v>
       </c>
       <c r="S31" t="n">
-        <v>1430.518603516427</v>
+        <v>1604.450489252477</v>
       </c>
       <c r="T31" t="n">
-        <v>1232.910035430257</v>
+        <v>1406.841921166307</v>
       </c>
       <c r="U31" t="n">
-        <v>984.3761383781323</v>
+        <v>1143.950645999026</v>
       </c>
       <c r="V31" t="n">
-        <v>755.9297963322883</v>
+        <v>915.5043039531823</v>
       </c>
       <c r="W31" t="n">
-        <v>492.7507724553706</v>
+        <v>652.3252800762646</v>
       </c>
       <c r="X31" t="n">
-        <v>290.9993677173962</v>
+        <v>450.57387533829</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.44493473390894</v>
+        <v>256.0194423548028</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2388.842164710592</v>
+        <v>2429.141793550304</v>
       </c>
       <c r="C32" t="n">
-        <v>2019.879647770181</v>
+        <v>2060.179276609892</v>
       </c>
       <c r="D32" t="n">
-        <v>1661.61394916343</v>
+        <v>1701.913578003141</v>
       </c>
       <c r="E32" t="n">
-        <v>1275.825696565186</v>
+        <v>1316.125325404897</v>
       </c>
       <c r="F32" t="n">
-        <v>864.8397917755785</v>
+        <v>905.1394206152895</v>
       </c>
       <c r="G32" t="n">
-        <v>448.6820339951278</v>
+        <v>488.9816628348387</v>
       </c>
       <c r="H32" t="n">
         <v>180.2831557244945</v>
@@ -6698,25 +6698,25 @@
         <v>96.44493473390897</v>
       </c>
       <c r="J32" t="n">
-        <v>362.4486577866846</v>
+        <v>362.4486577866837</v>
       </c>
       <c r="K32" t="n">
-        <v>881.8640885387249</v>
+        <v>881.864088538724</v>
       </c>
       <c r="L32" t="n">
-        <v>1578.521487783062</v>
+        <v>1578.52148778306</v>
       </c>
       <c r="M32" t="n">
-        <v>2370.293621425557</v>
+        <v>2370.293621425556</v>
       </c>
       <c r="N32" t="n">
-        <v>3160.245458416856</v>
+        <v>3160.245458416854</v>
       </c>
       <c r="O32" t="n">
-        <v>3860.986939860263</v>
+        <v>3860.986939860261</v>
       </c>
       <c r="P32" t="n">
-        <v>4421.379199137525</v>
+        <v>4421.379199137524</v>
       </c>
       <c r="Q32" t="n">
         <v>4764.988687984365</v>
@@ -6728,22 +6728,22 @@
         <v>4687.224620707664</v>
       </c>
       <c r="T32" t="n">
-        <v>4476.495938961491</v>
+        <v>4516.795567801201</v>
       </c>
       <c r="U32" t="n">
-        <v>4222.878637625291</v>
+        <v>4263.178266465002</v>
       </c>
       <c r="V32" t="n">
-        <v>3891.81575028172</v>
+        <v>3932.115379121431</v>
       </c>
       <c r="W32" t="n">
-        <v>3539.047095011606</v>
+        <v>3579.346723851317</v>
       </c>
       <c r="X32" t="n">
-        <v>3165.581336750526</v>
+        <v>3205.880965590237</v>
       </c>
       <c r="Y32" t="n">
-        <v>2775.442004774714</v>
+        <v>2815.741633614426</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>96.44493473390897</v>
       </c>
       <c r="J33" t="n">
-        <v>136.3514252061986</v>
+        <v>258.4684797326828</v>
       </c>
       <c r="K33" t="n">
-        <v>282.7127983605502</v>
+        <v>666.6504375294871</v>
       </c>
       <c r="L33" t="n">
-        <v>525.8362678370282</v>
+        <v>909.7739070059652</v>
       </c>
       <c r="M33" t="n">
-        <v>828.9067574951275</v>
+        <v>1212.844396664064</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.756228744182</v>
+        <v>1538.344905284773</v>
       </c>
       <c r="O33" t="n">
-        <v>1804.305807247367</v>
+        <v>1813.894483787958</v>
       </c>
       <c r="P33" t="n">
-        <v>2321.403711586392</v>
+        <v>2330.992388126982</v>
       </c>
       <c r="Q33" t="n">
-        <v>2614.372197138722</v>
+        <v>2623.960873679312</v>
       </c>
       <c r="R33" t="n">
         <v>2623.960873679312</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>654.7191611164926</v>
+        <v>654.7191611164922</v>
       </c>
       <c r="C34" t="n">
-        <v>555.2519639267921</v>
+        <v>555.2519639267917</v>
       </c>
       <c r="D34" t="n">
-        <v>474.6043102526628</v>
+        <v>474.6043102526625</v>
       </c>
       <c r="E34" t="n">
-        <v>396.1602024084762</v>
+        <v>396.1602024084758</v>
       </c>
       <c r="F34" t="n">
-        <v>318.7392406487722</v>
+        <v>318.7392406487719</v>
       </c>
       <c r="G34" t="n">
-        <v>220.0185581239712</v>
+        <v>220.0185581239711</v>
       </c>
       <c r="H34" t="n">
         <v>138.9419812464331</v>
@@ -6856,19 +6856,19 @@
         <v>96.44493473390897</v>
       </c>
       <c r="J34" t="n">
-        <v>175.9200613516826</v>
+        <v>175.9200613516823</v>
       </c>
       <c r="K34" t="n">
-        <v>392.5583760010173</v>
+        <v>392.5583760010171</v>
       </c>
       <c r="L34" t="n">
-        <v>706.266473955461</v>
+        <v>706.2664739554607</v>
       </c>
       <c r="M34" t="n">
-        <v>1043.715630526845</v>
+        <v>1043.715630526844</v>
       </c>
       <c r="N34" t="n">
-        <v>1380.194562860322</v>
+        <v>1380.194562860321</v>
       </c>
       <c r="O34" t="n">
         <v>1680.168623219748</v>
@@ -6880,10 +6880,10 @@
         <v>2028.896888028407</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.645695795106</v>
+        <v>1986.645695795105</v>
       </c>
       <c r="S34" t="n">
-        <v>1855.944649637219</v>
+        <v>1855.944649637218</v>
       </c>
       <c r="T34" t="n">
         <v>1701.566921129212</v>
@@ -6892,16 +6892,16 @@
         <v>1481.906485540095</v>
       </c>
       <c r="V34" t="n">
-        <v>1296.690983072415</v>
+        <v>1296.690983072414</v>
       </c>
       <c r="W34" t="n">
-        <v>1076.742798773661</v>
+        <v>1076.74279877366</v>
       </c>
       <c r="X34" t="n">
-        <v>918.2222336138495</v>
+        <v>918.2222336138492</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.8986402085259</v>
+        <v>766.8986402085254</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2429.141793550304</v>
+        <v>2388.842164710592</v>
       </c>
       <c r="C35" t="n">
-        <v>2060.179276609892</v>
+        <v>2019.879647770181</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.913578003141</v>
+        <v>1661.61394916343</v>
       </c>
       <c r="E35" t="n">
-        <v>1316.125325404897</v>
+        <v>1275.825696565186</v>
       </c>
       <c r="F35" t="n">
-        <v>905.1394206152894</v>
+        <v>864.8397917755785</v>
       </c>
       <c r="G35" t="n">
-        <v>488.9816628348387</v>
+        <v>448.6820339951278</v>
       </c>
       <c r="H35" t="n">
         <v>180.2831557244945</v>
@@ -6938,10 +6938,10 @@
         <v>362.4486577866846</v>
       </c>
       <c r="K35" t="n">
-        <v>881.8640885387251</v>
+        <v>881.864088538725</v>
       </c>
       <c r="L35" t="n">
-        <v>1578.521487783062</v>
+        <v>1578.521487783061</v>
       </c>
       <c r="M35" t="n">
         <v>2370.293621425557</v>
@@ -6977,10 +6977,10 @@
         <v>3539.047095011606</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.880965590237</v>
+        <v>3165.581336750526</v>
       </c>
       <c r="Y35" t="n">
-        <v>2815.741633614426</v>
+        <v>2775.442004774714</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>96.44493473390897</v>
       </c>
       <c r="J36" t="n">
-        <v>136.3514252061986</v>
+        <v>248.879803192092</v>
       </c>
       <c r="K36" t="n">
-        <v>282.7127983605502</v>
+        <v>657.0617609888964</v>
       </c>
       <c r="L36" t="n">
-        <v>525.8362678370282</v>
+        <v>900.1852304653744</v>
       </c>
       <c r="M36" t="n">
-        <v>828.9067574951275</v>
+        <v>1203.255720123474</v>
       </c>
       <c r="N36" t="n">
-        <v>1154.407266115837</v>
+        <v>1528.756228744182</v>
       </c>
       <c r="O36" t="n">
         <v>1804.305807247367</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>654.719161116492</v>
+        <v>654.7191611164926</v>
       </c>
       <c r="C37" t="n">
-        <v>555.2519639267916</v>
+        <v>555.2519639267922</v>
       </c>
       <c r="D37" t="n">
-        <v>474.6043102526623</v>
+        <v>474.6043102526629</v>
       </c>
       <c r="E37" t="n">
-        <v>396.1602024084757</v>
+        <v>396.1602024084763</v>
       </c>
       <c r="F37" t="n">
-        <v>318.7392406487718</v>
+        <v>318.7392406487724</v>
       </c>
       <c r="G37" t="n">
-        <v>220.0185581239711</v>
+        <v>220.0185581239714</v>
       </c>
       <c r="H37" t="n">
-        <v>138.9419812464331</v>
+        <v>138.9419812464334</v>
       </c>
       <c r="I37" t="n">
         <v>96.44493473390897</v>
       </c>
       <c r="J37" t="n">
-        <v>175.9200613516827</v>
+        <v>175.9200613516826</v>
       </c>
       <c r="K37" t="n">
-        <v>392.5583760010174</v>
+        <v>392.5583760010173</v>
       </c>
       <c r="L37" t="n">
-        <v>706.2664739554612</v>
+        <v>706.266473955461</v>
       </c>
       <c r="M37" t="n">
         <v>1043.715630526845</v>
       </c>
       <c r="N37" t="n">
-        <v>1380.194562860322</v>
+        <v>1380.194562860321</v>
       </c>
       <c r="O37" t="n">
         <v>1680.168623219748</v>
@@ -7117,10 +7117,10 @@
         <v>2028.896888028407</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.645695795106</v>
+        <v>1986.645695795105</v>
       </c>
       <c r="S37" t="n">
-        <v>1855.944649637219</v>
+        <v>1855.944649637218</v>
       </c>
       <c r="T37" t="n">
         <v>1701.566921129212</v>
@@ -7129,16 +7129,16 @@
         <v>1481.906485540095</v>
       </c>
       <c r="V37" t="n">
-        <v>1296.690983072414</v>
+        <v>1296.690983072415</v>
       </c>
       <c r="W37" t="n">
-        <v>1076.74279877366</v>
+        <v>1076.742798773661</v>
       </c>
       <c r="X37" t="n">
-        <v>918.2222336138491</v>
+        <v>918.2222336138497</v>
       </c>
       <c r="Y37" t="n">
-        <v>766.8986402085253</v>
+        <v>766.8986402085259</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2388.842164710592</v>
+        <v>2429.141793550304</v>
       </c>
       <c r="C38" t="n">
-        <v>2019.87964777018</v>
+        <v>2060.179276609892</v>
       </c>
       <c r="D38" t="n">
-        <v>1661.613949163429</v>
+        <v>1701.913578003141</v>
       </c>
       <c r="E38" t="n">
-        <v>1275.825696565185</v>
+        <v>1316.125325404897</v>
       </c>
       <c r="F38" t="n">
-        <v>905.1394206152894</v>
+        <v>905.1394206152895</v>
       </c>
       <c r="G38" t="n">
         <v>488.9816628348387</v>
@@ -7169,55 +7169,55 @@
         <v>180.2831557244945</v>
       </c>
       <c r="I38" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J38" t="n">
-        <v>362.4486577866842</v>
+        <v>362.4486577866846</v>
       </c>
       <c r="K38" t="n">
-        <v>881.8640885387246</v>
+        <v>881.8640885387249</v>
       </c>
       <c r="L38" t="n">
-        <v>1578.52148778306</v>
+        <v>1578.521487783061</v>
       </c>
       <c r="M38" t="n">
-        <v>2370.293621425556</v>
+        <v>2370.293621425557</v>
       </c>
       <c r="N38" t="n">
-        <v>3160.245458416854</v>
+        <v>3160.245458416855</v>
       </c>
       <c r="O38" t="n">
-        <v>3860.986939860261</v>
+        <v>3860.986939860262</v>
       </c>
       <c r="P38" t="n">
-        <v>4421.379199137524</v>
+        <v>4421.379199137525</v>
       </c>
       <c r="Q38" t="n">
-        <v>4764.988687984364</v>
+        <v>4764.988687984365</v>
       </c>
       <c r="R38" t="n">
-        <v>4822.246736695447</v>
+        <v>4822.246736695448</v>
       </c>
       <c r="S38" t="n">
-        <v>4687.224620707663</v>
+        <v>4687.224620707664</v>
       </c>
       <c r="T38" t="n">
-        <v>4476.49593896149</v>
+        <v>4476.495938961491</v>
       </c>
       <c r="U38" t="n">
-        <v>4222.87863762529</v>
+        <v>4222.878637625291</v>
       </c>
       <c r="V38" t="n">
-        <v>3891.815750281719</v>
+        <v>3891.81575028172</v>
       </c>
       <c r="W38" t="n">
-        <v>3539.047095011605</v>
+        <v>3539.047095011606</v>
       </c>
       <c r="X38" t="n">
-        <v>3165.581336750525</v>
+        <v>3165.581336750526</v>
       </c>
       <c r="Y38" t="n">
-        <v>2775.442004774713</v>
+        <v>2775.442004774714</v>
       </c>
     </row>
     <row r="39">
@@ -7236,37 +7236,37 @@
         <v>664.0432290064389</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8057740009833</v>
+        <v>504.8057740009834</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2712160278683</v>
+        <v>358.2712160278684</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3274250871162</v>
+        <v>221.3274250871163</v>
       </c>
       <c r="H39" t="n">
         <v>125.2172803611191</v>
       </c>
       <c r="I39" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J39" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K39" t="n">
-        <v>282.7127983605502</v>
+        <v>669.3635079900077</v>
       </c>
       <c r="L39" t="n">
-        <v>525.8362678370282</v>
+        <v>912.4869774664858</v>
       </c>
       <c r="M39" t="n">
-        <v>828.9067574951275</v>
+        <v>1215.557467124585</v>
       </c>
       <c r="N39" t="n">
-        <v>1154.407266115837</v>
+        <v>1541.057975745294</v>
       </c>
       <c r="O39" t="n">
-        <v>1804.305807247367</v>
+        <v>1816.607554248478</v>
       </c>
       <c r="P39" t="n">
         <v>2321.403711586392</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>654.7191611164925</v>
+        <v>654.7191611164922</v>
       </c>
       <c r="C40" t="n">
-        <v>555.2519639267921</v>
+        <v>555.2519639267917</v>
       </c>
       <c r="D40" t="n">
-        <v>474.6043102526628</v>
+        <v>474.6043102526625</v>
       </c>
       <c r="E40" t="n">
-        <v>396.1602024084762</v>
+        <v>396.1602024084758</v>
       </c>
       <c r="F40" t="n">
-        <v>318.7392406487722</v>
+        <v>318.7392406487719</v>
       </c>
       <c r="G40" t="n">
-        <v>220.0185581239714</v>
+        <v>220.0185581239711</v>
       </c>
       <c r="H40" t="n">
         <v>138.9419812464331</v>
       </c>
       <c r="I40" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J40" t="n">
         <v>175.9200613516826</v>
       </c>
       <c r="K40" t="n">
-        <v>392.5583760010172</v>
+        <v>392.5583760010174</v>
       </c>
       <c r="L40" t="n">
-        <v>706.2664739554609</v>
+        <v>706.266473955461</v>
       </c>
       <c r="M40" t="n">
         <v>1043.715630526845</v>
@@ -7372,10 +7372,10 @@
         <v>1076.74279877366</v>
       </c>
       <c r="X40" t="n">
-        <v>918.2222336138494</v>
+        <v>918.2222336138491</v>
       </c>
       <c r="Y40" t="n">
-        <v>766.8986402085258</v>
+        <v>766.8986402085254</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.141793550304</v>
+        <v>2388.842164710592</v>
       </c>
       <c r="C41" t="n">
-        <v>2060.179276609892</v>
+        <v>2019.879647770181</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.913578003141</v>
+        <v>1661.61394916343</v>
       </c>
       <c r="E41" t="n">
-        <v>1316.125325404897</v>
+        <v>1275.825696565186</v>
       </c>
       <c r="F41" t="n">
-        <v>905.1394206152894</v>
+        <v>864.8397917755785</v>
       </c>
       <c r="G41" t="n">
-        <v>488.9816628348387</v>
+        <v>448.6820339951278</v>
       </c>
       <c r="H41" t="n">
-        <v>180.2831557244945</v>
+        <v>139.9835268847836</v>
       </c>
       <c r="I41" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J41" t="n">
-        <v>362.4486577866836</v>
+        <v>362.4486577866842</v>
       </c>
       <c r="K41" t="n">
-        <v>881.864088538724</v>
+        <v>881.8640885387259</v>
       </c>
       <c r="L41" t="n">
-        <v>1578.52148778306</v>
+        <v>1578.521487783062</v>
       </c>
       <c r="M41" t="n">
-        <v>2370.293621425556</v>
+        <v>2370.293621425558</v>
       </c>
       <c r="N41" t="n">
-        <v>3160.245458416854</v>
+        <v>3160.245458416856</v>
       </c>
       <c r="O41" t="n">
-        <v>3860.986939860261</v>
+        <v>3860.986939860263</v>
       </c>
       <c r="P41" t="n">
-        <v>4421.379199137524</v>
+        <v>4421.379199137526</v>
       </c>
       <c r="Q41" t="n">
-        <v>4764.988687984364</v>
+        <v>4764.988687984365</v>
       </c>
       <c r="R41" t="n">
-        <v>4822.246736695447</v>
+        <v>4822.246736695448</v>
       </c>
       <c r="S41" t="n">
-        <v>4687.224620707663</v>
+        <v>4687.224620707664</v>
       </c>
       <c r="T41" t="n">
-        <v>4476.49593896149</v>
+        <v>4476.495938961491</v>
       </c>
       <c r="U41" t="n">
-        <v>4222.87863762529</v>
+        <v>4222.878637625291</v>
       </c>
       <c r="V41" t="n">
-        <v>3891.815750281719</v>
+        <v>3891.81575028172</v>
       </c>
       <c r="W41" t="n">
-        <v>3539.047095011605</v>
+        <v>3539.047095011606</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.880965590237</v>
+        <v>3165.581336750526</v>
       </c>
       <c r="Y41" t="n">
-        <v>2815.741633614426</v>
+        <v>2775.442004774714</v>
       </c>
     </row>
     <row r="42">
@@ -7473,34 +7473,34 @@
         <v>664.0432290064389</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8057740009833</v>
+        <v>504.8057740009834</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2712160278683</v>
+        <v>358.2712160278684</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3274250871162</v>
+        <v>221.3274250871163</v>
       </c>
       <c r="H42" t="n">
         <v>125.2172803611191</v>
       </c>
       <c r="I42" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J42" t="n">
-        <v>136.3514252061986</v>
+        <v>248.879803192092</v>
       </c>
       <c r="K42" t="n">
-        <v>282.7127983605502</v>
+        <v>657.0617609888964</v>
       </c>
       <c r="L42" t="n">
-        <v>525.8362678370282</v>
+        <v>900.1852304653744</v>
       </c>
       <c r="M42" t="n">
-        <v>828.9067574951275</v>
+        <v>1203.255720123474</v>
       </c>
       <c r="N42" t="n">
-        <v>1154.407266115837</v>
+        <v>1528.756228744182</v>
       </c>
       <c r="O42" t="n">
         <v>1804.305807247367</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>654.7191611164926</v>
+        <v>654.7191611164928</v>
       </c>
       <c r="C43" t="n">
-        <v>555.2519639267921</v>
+        <v>555.2519639267923</v>
       </c>
       <c r="D43" t="n">
-        <v>474.6043102526627</v>
+        <v>474.6043102526629</v>
       </c>
       <c r="E43" t="n">
-        <v>396.160202408476</v>
+        <v>396.1602024084762</v>
       </c>
       <c r="F43" t="n">
-        <v>318.7392406487721</v>
+        <v>318.7392406487722</v>
       </c>
       <c r="G43" t="n">
-        <v>220.0185581239712</v>
+        <v>220.0185581239713</v>
       </c>
       <c r="H43" t="n">
-        <v>138.9419812464331</v>
+        <v>138.9419812464332</v>
       </c>
       <c r="I43" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J43" t="n">
         <v>175.9200613516826</v>
@@ -7573,22 +7573,22 @@
         <v>392.5583760010173</v>
       </c>
       <c r="L43" t="n">
-        <v>706.266473955461</v>
+        <v>706.2664739554609</v>
       </c>
       <c r="M43" t="n">
-        <v>1043.715630526845</v>
+        <v>1043.715630526844</v>
       </c>
       <c r="N43" t="n">
         <v>1380.194562860321</v>
       </c>
       <c r="O43" t="n">
-        <v>1680.168623219748</v>
+        <v>1680.168623219747</v>
       </c>
       <c r="P43" t="n">
-        <v>1923.154316330384</v>
+        <v>1923.154316330383</v>
       </c>
       <c r="Q43" t="n">
-        <v>2028.896888028407</v>
+        <v>2028.896888028406</v>
       </c>
       <c r="R43" t="n">
         <v>1986.645695795105</v>
@@ -7597,10 +7597,10 @@
         <v>1855.944649637218</v>
       </c>
       <c r="T43" t="n">
-        <v>1701.566921129212</v>
+        <v>1701.566921129213</v>
       </c>
       <c r="U43" t="n">
-        <v>1481.906485540095</v>
+        <v>1481.906485540096</v>
       </c>
       <c r="V43" t="n">
         <v>1296.690983072415</v>
@@ -7609,10 +7609,10 @@
         <v>1076.742798773661</v>
       </c>
       <c r="X43" t="n">
-        <v>918.2222336138495</v>
+        <v>918.22223361385</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.8986402085259</v>
+        <v>766.8986402085262</v>
       </c>
     </row>
     <row r="44">
@@ -7643,49 +7643,49 @@
         <v>180.2831557244945</v>
       </c>
       <c r="I44" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J44" t="n">
-        <v>362.4486577866836</v>
+        <v>362.4486577866843</v>
       </c>
       <c r="K44" t="n">
-        <v>881.864088538724</v>
+        <v>881.8640885387247</v>
       </c>
       <c r="L44" t="n">
-        <v>1578.52148778306</v>
+        <v>1578.521487783061</v>
       </c>
       <c r="M44" t="n">
-        <v>2370.293621425556</v>
+        <v>2370.293621425557</v>
       </c>
       <c r="N44" t="n">
-        <v>3160.245458416854</v>
+        <v>3160.245458416855</v>
       </c>
       <c r="O44" t="n">
-        <v>3860.986939860261</v>
+        <v>3860.986939860262</v>
       </c>
       <c r="P44" t="n">
-        <v>4421.379199137524</v>
+        <v>4421.379199137525</v>
       </c>
       <c r="Q44" t="n">
-        <v>4764.988687984364</v>
+        <v>4764.988687984365</v>
       </c>
       <c r="R44" t="n">
-        <v>4822.246736695447</v>
+        <v>4822.246736695448</v>
       </c>
       <c r="S44" t="n">
-        <v>4687.224620707663</v>
+        <v>4727.524249547375</v>
       </c>
       <c r="T44" t="n">
-        <v>4476.49593896149</v>
+        <v>4516.795567801201</v>
       </c>
       <c r="U44" t="n">
-        <v>4222.87863762529</v>
+        <v>4263.178266465002</v>
       </c>
       <c r="V44" t="n">
-        <v>3891.815750281719</v>
+        <v>3932.115379121431</v>
       </c>
       <c r="W44" t="n">
-        <v>3539.047095011605</v>
+        <v>3579.346723851317</v>
       </c>
       <c r="X44" t="n">
         <v>3205.880965590237</v>
@@ -7710,34 +7710,34 @@
         <v>664.0432290064389</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8057740009833</v>
+        <v>504.8057740009834</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2712160278683</v>
+        <v>358.2712160278684</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3274250871162</v>
+        <v>221.3274250871163</v>
       </c>
       <c r="H45" t="n">
         <v>125.2172803611191</v>
       </c>
       <c r="I45" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J45" t="n">
-        <v>136.3514252061986</v>
+        <v>261.1815501932033</v>
       </c>
       <c r="K45" t="n">
-        <v>282.7127983605502</v>
+        <v>657.0617609888958</v>
       </c>
       <c r="L45" t="n">
-        <v>525.8362678370282</v>
+        <v>900.1852304653738</v>
       </c>
       <c r="M45" t="n">
-        <v>828.9067574951275</v>
+        <v>1203.255720123473</v>
       </c>
       <c r="N45" t="n">
-        <v>1154.407266115837</v>
+        <v>1528.756228744182</v>
       </c>
       <c r="O45" t="n">
         <v>1804.305807247367</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>654.7191611164924</v>
+        <v>654.7191611164922</v>
       </c>
       <c r="C46" t="n">
-        <v>555.2519639267919</v>
+        <v>555.2519639267917</v>
       </c>
       <c r="D46" t="n">
-        <v>474.6043102526626</v>
+        <v>474.6043102526625</v>
       </c>
       <c r="E46" t="n">
         <v>396.1602024084759</v>
@@ -7795,28 +7795,28 @@
         <v>318.739240648772</v>
       </c>
       <c r="G46" t="n">
-        <v>220.0185581239712</v>
+        <v>220.0185581239711</v>
       </c>
       <c r="H46" t="n">
         <v>138.9419812464331</v>
       </c>
       <c r="I46" t="n">
-        <v>96.44493473390894</v>
+        <v>96.44493473390897</v>
       </c>
       <c r="J46" t="n">
-        <v>175.9200613516826</v>
+        <v>175.9200613516824</v>
       </c>
       <c r="K46" t="n">
-        <v>392.5583760010174</v>
+        <v>392.5583760010172</v>
       </c>
       <c r="L46" t="n">
-        <v>706.2664739554612</v>
+        <v>706.2664739554609</v>
       </c>
       <c r="M46" t="n">
         <v>1043.715630526845</v>
       </c>
       <c r="N46" t="n">
-        <v>1380.194562860322</v>
+        <v>1380.194562860321</v>
       </c>
       <c r="O46" t="n">
         <v>1680.168623219748</v>
@@ -7840,16 +7840,16 @@
         <v>1481.906485540095</v>
       </c>
       <c r="V46" t="n">
-        <v>1296.690983072415</v>
+        <v>1296.690983072414</v>
       </c>
       <c r="W46" t="n">
-        <v>1076.742798773661</v>
+        <v>1076.74279877366</v>
       </c>
       <c r="X46" t="n">
-        <v>918.2222336138497</v>
+        <v>918.2222336138494</v>
       </c>
       <c r="Y46" t="n">
-        <v>766.8986402085256</v>
+        <v>766.8986402085254</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
-        <v>362.2743407998537</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>373.8491954283778</v>
+        <v>351.4290252218879</v>
       </c>
       <c r="O3" t="n">
         <v>385.2788254813443</v>
@@ -8298,13 +8298,13 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>375.2833119013999</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
-        <v>381.709495280812</v>
+        <v>197.5393732613981</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>7.289919977698162</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>207.3368125232024</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>35.83613795213813</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>261.7247617999317</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>378.1302652811571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>35.83613795213813</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>378.1302652811572</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>197.6512806640199</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>176.6396793039568</v>
       </c>
       <c r="O21" t="n">
-        <v>378.1302652811571</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.6396793039567</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>378.1302652811571</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>378.1302652811571</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>306.0367615681074</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>123.3505601277619</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>378.1302652811571</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>35.83613795213812</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>123.3505601277618</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>378.1302652811572</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>35.83613795213812</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.6650282685792</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>378.1302652811571</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>378.1302652811571</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>306.0367615681074</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711661</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>113.6650282685792</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>378.1302652811571</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>252.0392299407483</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>378.1302652811571</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39.8966325513137</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.89663255131364</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.5077715803772</v>
       </c>
       <c r="H13" t="n">
-        <v>149.040106989587</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.8463719282233</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.10140395764243</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2381271140501</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>207.1060444169972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>177.1722046785164</v>
       </c>
       <c r="C16" t="n">
-        <v>164.587045595207</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145.9556975147915</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>143.7741871431483</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>142.7612725195104</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8479960769563</v>
+        <v>163.8479960769562</v>
       </c>
       <c r="H16" t="n">
-        <v>146.3803314861662</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.1865964248024</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.5085560737115</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>283.5783516106291</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>249.4778678204071</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>67.66332341908929</v>
       </c>
       <c r="X16" t="n">
-        <v>167.6328481258286</v>
+        <v>223.0498798856162</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.9248778486739</v>
+        <v>215.9248778486738</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.1722046785164</v>
+        <v>174.6363745556571</v>
       </c>
       <c r="C19" t="n">
-        <v>164.587045595207</v>
+        <v>164.5870455952069</v>
       </c>
       <c r="D19" t="n">
         <v>145.9556975147915</v>
@@ -23902,10 +23902,10 @@
         <v>142.7612725195104</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8479960769563</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.3803314861662</v>
+        <v>146.3803314861661</v>
       </c>
       <c r="I19" t="n">
         <v>108.1865964248024</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.9432006883717</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.9484716003302</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>249.4778678204071</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>223.0498798856163</v>
       </c>
       <c r="Y19" t="n">
-        <v>134.0798581540956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.1722046785164</v>
+        <v>53.81682793423289</v>
       </c>
       <c r="C22" t="n">
         <v>164.587045595207</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>167.6328481258288</v>
+        <v>283.8632228331701</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>223.0498798856163</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.9248778486739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.9432006883717</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.9484716003303</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>59.68964743745732</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>164.6092543741723</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>215.9248778486739</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.2772725194897</v>
+        <v>151.196439980074</v>
       </c>
       <c r="C28" t="n">
         <v>138.6112808967645</v>
@@ -24607,19 +24607,19 @@
         <v>119.979932816349</v>
       </c>
       <c r="E28" t="n">
-        <v>117.7984224447059</v>
+        <v>117.7984224447058</v>
       </c>
       <c r="F28" t="n">
-        <v>116.7855078210679</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>137.8722313785139</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>120.4045667877237</v>
       </c>
       <c r="I28" t="n">
-        <v>82.21083172635998</v>
+        <v>82.21083172635997</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>81.96743598992921</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>144.7711357490687</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>122.6397083197699</v>
       </c>
       <c r="E31" t="n">
-        <v>120.4581979481267</v>
+        <v>120.4581979481268</v>
       </c>
       <c r="F31" t="n">
-        <v>119.4452833244888</v>
+        <v>101.9985276617387</v>
       </c>
       <c r="G31" t="n">
-        <v>140.5320068819347</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>123.0643422911446</v>
       </c>
       <c r="I31" t="n">
-        <v>84.87060722978083</v>
+        <v>84.87060722978089</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>172.1925668786901</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>14.21380433400466</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26369,13 +26369,13 @@
         <v>23645.34018189503</v>
       </c>
       <c r="D3" t="n">
-        <v>431478.9618558294</v>
+        <v>431478.9618558295</v>
       </c>
       <c r="E3" t="n">
-        <v>515950.3517004659</v>
+        <v>515950.3517004655</v>
       </c>
       <c r="F3" t="n">
-        <v>2127.820402736688</v>
+        <v>2127.820402736721</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>84768.98330465266</v>
+        <v>84768.98330465273</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750026</v>
+        <v>4807.454491749909</v>
       </c>
       <c r="L3" t="n">
         <v>138270.6754797676</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20780.61175875392</v>
+        <v>20780.61175875391</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302915.1537842172</v>
+        <v>302915.1537842171</v>
       </c>
       <c r="C4" t="n">
         <v>296088.6190402466</v>
@@ -26427,37 +26427,37 @@
         <v>22259.81255750221</v>
       </c>
       <c r="F4" t="n">
+        <v>24947.63731863436</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24947.6373186343</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24947.63731863436</v>
+      </c>
+      <c r="I4" t="n">
         <v>24947.63731863427</v>
       </c>
-      <c r="G4" t="n">
-        <v>24947.63731863427</v>
-      </c>
-      <c r="H4" t="n">
-        <v>24947.63731863426</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24947.63731863426</v>
-      </c>
       <c r="J4" t="n">
-        <v>33494.95842035198</v>
+        <v>33494.95842035195</v>
       </c>
       <c r="K4" t="n">
-        <v>32619.75972841189</v>
+        <v>32619.75972841191</v>
       </c>
       <c r="L4" t="n">
-        <v>46702.60937478346</v>
+        <v>46702.60937478344</v>
       </c>
       <c r="M4" t="n">
-        <v>46702.60937478348</v>
+        <v>46702.60937478347</v>
       </c>
       <c r="N4" t="n">
-        <v>46702.6093747835</v>
+        <v>46702.60937478347</v>
       </c>
       <c r="O4" t="n">
-        <v>46702.6093747835</v>
+        <v>46702.60937478345</v>
       </c>
       <c r="P4" t="n">
-        <v>46702.60937478351</v>
+        <v>46702.60937478345</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91228.7840640697</v>
+        <v>91228.78406406968</v>
       </c>
       <c r="F5" t="n">
         <v>91452.38873086678</v>
       </c>
       <c r="G5" t="n">
-        <v>91452.38873086678</v>
+        <v>91452.38873086676</v>
       </c>
       <c r="H5" t="n">
-        <v>91452.38873086678</v>
+        <v>91452.38873086675</v>
       </c>
       <c r="I5" t="n">
         <v>91452.38873086678</v>
       </c>
       <c r="J5" t="n">
-        <v>93636.14529330013</v>
+        <v>93636.14529330014</v>
       </c>
       <c r="K5" t="n">
-        <v>93412.54062650303</v>
+        <v>93412.54062650302</v>
       </c>
       <c r="L5" t="n">
         <v>97010.57034447472</v>
@@ -26503,13 +26503,13 @@
         <v>97010.57034447472</v>
       </c>
       <c r="N5" t="n">
-        <v>97010.57034447471</v>
+        <v>97010.57034447472</v>
       </c>
       <c r="O5" t="n">
-        <v>97010.57034447471</v>
+        <v>97010.57034447472</v>
       </c>
       <c r="P5" t="n">
-        <v>97010.57034447471</v>
+        <v>97010.57034447472</v>
       </c>
     </row>
     <row r="6">
@@ -26525,34 +26525,34 @@
         <v>-369868.366628975</v>
       </c>
       <c r="D6" t="n">
-        <v>-679970.9077057632</v>
+        <v>-679970.9077057634</v>
       </c>
       <c r="E6" t="n">
-        <v>-629438.9483220378</v>
+        <v>-629545.2658059093</v>
       </c>
       <c r="F6" t="n">
-        <v>-118527.8464522377</v>
+        <v>-118622.4198356827</v>
       </c>
       <c r="G6" t="n">
-        <v>-116400.026049501</v>
+        <v>-116494.5994329458</v>
       </c>
       <c r="H6" t="n">
-        <v>-116400.026049501</v>
+        <v>-116494.5994329459</v>
       </c>
       <c r="I6" t="n">
-        <v>-116400.026049501</v>
+        <v>-116494.599432946</v>
       </c>
       <c r="J6" t="n">
-        <v>-211900.0870183048</v>
+        <v>-211957.5034210883</v>
       </c>
       <c r="K6" t="n">
-        <v>-130839.7548466649</v>
+        <v>-130900.9759199976</v>
       </c>
       <c r="L6" t="n">
-        <v>-281983.8551990257</v>
+        <v>-281983.8551990258</v>
       </c>
       <c r="M6" t="n">
-        <v>-276108.8881425951</v>
+        <v>-276108.888142595</v>
       </c>
       <c r="N6" t="n">
         <v>-143713.1797192582</v>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="G2" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="H2" t="n">
         <v>2.65977550342086</v>
@@ -26707,13 +26707,13 @@
         <v>2.65977550342086</v>
       </c>
       <c r="J2" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="K2" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="L2" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="M2" t="n">
         <v>68.77429588082438</v>
@@ -26722,10 +26722,10 @@
         <v>68.77429588082438</v>
       </c>
       <c r="O2" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="P2" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
     </row>
     <row r="3">
@@ -26741,40 +26741,40 @@
         <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816002</v>
       </c>
       <c r="F3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816002</v>
       </c>
       <c r="G3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816002</v>
       </c>
       <c r="H3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="I3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="J3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="K3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="L3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="M3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="N3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="O3" t="n">
-        <v>822.5061314816004</v>
+        <v>822.5061314816003</v>
       </c>
       <c r="P3" t="n">
         <v>822.5061314816004</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420901</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-6.261657858885883e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.97576469844245</v>
+        <v>25.97576469844246</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>42.79853118238191</v>
+        <v>42.7985311823819</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.9757646984424</v>
+        <v>25.97576469844239</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>19.33951979354701</v>
       </c>
       <c r="D3" t="n">
-        <v>354.7302815302972</v>
+        <v>354.7302815302974</v>
       </c>
       <c r="E3" t="n">
-        <v>444.7624672645138</v>
+        <v>444.7624672645135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>411.045238802889</v>
       </c>
       <c r="E4" t="n">
-        <v>531.2744114193064</v>
+        <v>531.2744114193061</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611423</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052372</v>
       </c>
       <c r="L4" t="n">
-        <v>411.0452388028892</v>
+        <v>411.0452388028893</v>
       </c>
       <c r="M4" t="n">
-        <v>531.2744114193064</v>
+        <v>531.2744114193061</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420901</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.97576469844245</v>
+        <v>25.97576469844246</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>411.045238802889</v>
       </c>
       <c r="M4" t="n">
-        <v>531.2744114193064</v>
+        <v>531.2744114193061</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
         <v>10.69576364311372</v>
@@ -27430,22 +27430,22 @@
         <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>29.78435625694826</v>
       </c>
       <c r="U2" t="n">
         <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899248</v>
       </c>
       <c r="W2" t="n">
-        <v>121.3378918581807</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
-        <v>125.1683683173266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>86.10629244417939</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
         <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>119.4865886351124</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>8.339482357833219</v>
       </c>
       <c r="G4" t="n">
         <v>167.9843543597988</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
         <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>41.83411894223252</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
         <v>223.9011423785076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>151.9681874521648</v>
       </c>
       <c r="H5" t="n">
-        <v>320.4489459173329</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
         <v>4.097100052852173</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27670,19 +27670,19 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>170.4083166204859</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>68.41527627921629</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>59.0574454197955</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27819,13 +27819,13 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>15.59235192972153</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>67.9332040940478</v>
       </c>
       <c r="U7" t="n">
         <v>286.3167657450791</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>30.20169186836381</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>23.61150917758448</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.771212764859769</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.7537076119539</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="C14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="D14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="E14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="F14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="G14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="H14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="I14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="T14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="U14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="V14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="W14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="X14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="C16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="D16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="E16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="F16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="G16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="H16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="I16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="J16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="K16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="L16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="M16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="N16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="O16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="P16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="R16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="S16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="T16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="U16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="V16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="W16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="X16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342095</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="C17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="D17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="E17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="F17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="G17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="H17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="I17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="T17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="U17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="V17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="W17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="X17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="C19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="D19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="E19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="F19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="G19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="H19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="I19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="J19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="K19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="L19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="M19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="N19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="O19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="P19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="R19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="S19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="T19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="U19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="V19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="W19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="X19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503420888</v>
       </c>
     </row>
     <row r="20">
@@ -28801,7 +28801,7 @@
         <v>2.65977550342086</v>
       </c>
       <c r="C20" t="n">
-        <v>2.65977550342086</v>
+        <v>2.659775503422736</v>
       </c>
       <c r="D20" t="n">
         <v>2.65977550342086</v>
@@ -28867,7 +28867,7 @@
         <v>2.65977550342086</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.65977550342069</v>
+        <v>2.65977550342086</v>
       </c>
     </row>
     <row r="21">
@@ -29092,7 +29092,7 @@
         <v>2.65977550342086</v>
       </c>
       <c r="U23" t="n">
-        <v>2.659775503420605</v>
+        <v>2.65977550342086</v>
       </c>
       <c r="V23" t="n">
         <v>2.65977550342086</v>
@@ -29104,7 +29104,7 @@
         <v>2.65977550342086</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.65977550342086</v>
+        <v>2.65977550342069</v>
       </c>
     </row>
     <row r="24">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.2610923494513</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>28.63554020186331</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>11.26109234945068</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>28.63554020186332</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="C28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="D28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="E28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="F28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="G28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="H28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="I28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="J28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="K28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="L28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="M28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="N28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="O28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="P28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="R28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="S28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="T28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="U28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="V28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="W28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="X28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.63554020186331</v>
+        <v>28.63554020186332</v>
       </c>
     </row>
     <row r="29">
@@ -29512,16 +29512,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>13.92086785287245</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>13.92086785287324</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>25.97576469844246</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="C31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="D31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="E31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="F31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="G31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="H31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="I31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="J31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="K31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="L31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="M31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="N31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="O31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="P31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="R31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="S31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="T31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="U31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="V31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="W31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="X31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
       <c r="Y31" t="n">
-        <v>25.97576469844246</v>
+        <v>25.97576469844241</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>39.89663255131376</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>39.89663255131322</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="C34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="D34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="E34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="F34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="G34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="H34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="I34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="J34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="K34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="L34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="M34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="N34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="O34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="P34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="R34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="S34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="T34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="U34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="V34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="W34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="X34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>39.89663255131381</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>39.8966325513141</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>39.89663255131393</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>39.89663255131467</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>39.89663255131379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>39.89663255131501</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="C43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="D43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="E43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="F43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="G43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="H43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="I43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="J43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="K43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="L43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="M43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="N43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="O43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="P43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="R43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="S43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="T43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="U43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="V43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="W43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="X43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.77429588082434</v>
+        <v>68.77429588082431</v>
       </c>
     </row>
     <row r="44">
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.89663255131349</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>39.89663255131501</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="C46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="D46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="E46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="F46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="G46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="H46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="I46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="J46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="K46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="L46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="M46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="N46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="O46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="P46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="R46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="S46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="T46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="U46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="V46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="W46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="X46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.77429588082437</v>
+        <v>68.77429588082438</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31756,37 +31756,37 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I11" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J11" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K11" t="n">
-        <v>420.6064897385031</v>
+        <v>420.6064897385029</v>
       </c>
       <c r="L11" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M11" t="n">
-        <v>580.602531696557</v>
+        <v>580.6025316965569</v>
       </c>
       <c r="N11" t="n">
-        <v>589.997287660666</v>
+        <v>589.9972876606658</v>
       </c>
       <c r="O11" t="n">
-        <v>557.1177083846051</v>
+        <v>557.1177083846048</v>
       </c>
       <c r="P11" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325365</v>
       </c>
       <c r="Q11" t="n">
-        <v>357.0709909790298</v>
+        <v>357.0709909790297</v>
       </c>
       <c r="R11" t="n">
-        <v>207.7055307806275</v>
+        <v>207.7055307806274</v>
       </c>
       <c r="S11" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833957</v>
       </c>
       <c r="T11" t="n">
         <v>14.47445463541992</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.769164131866084</v>
+        <v>1.769164131866083</v>
       </c>
       <c r="H12" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I12" t="n">
-        <v>60.91201068047702</v>
+        <v>60.912010680477</v>
       </c>
       <c r="J12" t="n">
         <v>167.1472130023128</v>
@@ -31844,31 +31844,31 @@
         <v>285.6812098373404</v>
       </c>
       <c r="L12" t="n">
-        <v>384.1336418773267</v>
+        <v>384.1336418773266</v>
       </c>
       <c r="M12" t="n">
-        <v>448.2658416574722</v>
+        <v>448.265841657472</v>
       </c>
       <c r="N12" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O12" t="n">
-        <v>420.9291520234186</v>
+        <v>420.9291520234185</v>
       </c>
       <c r="P12" t="n">
-        <v>337.8327542683577</v>
+        <v>337.8327542683576</v>
       </c>
       <c r="Q12" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R12" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S12" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T12" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109342</v>
       </c>
       <c r="U12" t="n">
         <v>0.1163923770964529</v>
@@ -31914,43 +31914,43 @@
         <v>13.18706551785255</v>
       </c>
       <c r="I13" t="n">
-        <v>44.60410299903499</v>
+        <v>44.60410299903498</v>
       </c>
       <c r="J13" t="n">
         <v>104.8627899103673</v>
       </c>
       <c r="K13" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L13" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M13" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N13" t="n">
         <v>226.9712411677014</v>
       </c>
       <c r="O13" t="n">
-        <v>209.6446775782939</v>
+        <v>209.6446775782938</v>
       </c>
       <c r="P13" t="n">
         <v>179.3872389054296</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R13" t="n">
-        <v>66.69041518537695</v>
+        <v>66.69041518537693</v>
       </c>
       <c r="S13" t="n">
-        <v>25.84826645983979</v>
+        <v>25.84826645983978</v>
       </c>
       <c r="T13" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08090224244081323</v>
+        <v>0.08090224244081322</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,37 +31993,37 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I14" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J14" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K14" t="n">
-        <v>420.6064897385031</v>
+        <v>420.6064897385029</v>
       </c>
       <c r="L14" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M14" t="n">
-        <v>580.602531696557</v>
+        <v>580.6025316965569</v>
       </c>
       <c r="N14" t="n">
-        <v>589.997287660666</v>
+        <v>589.9972876606658</v>
       </c>
       <c r="O14" t="n">
-        <v>557.1177083846051</v>
+        <v>557.1177083846048</v>
       </c>
       <c r="P14" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325365</v>
       </c>
       <c r="Q14" t="n">
-        <v>357.0709909790298</v>
+        <v>357.0709909790297</v>
       </c>
       <c r="R14" t="n">
-        <v>207.7055307806275</v>
+        <v>207.7055307806274</v>
       </c>
       <c r="S14" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833957</v>
       </c>
       <c r="T14" t="n">
         <v>14.47445463541992</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.769164131866084</v>
+        <v>1.769164131866083</v>
       </c>
       <c r="H15" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I15" t="n">
-        <v>60.91201068047702</v>
+        <v>60.912010680477</v>
       </c>
       <c r="J15" t="n">
         <v>167.1472130023128</v>
@@ -32081,31 +32081,31 @@
         <v>285.6812098373404</v>
       </c>
       <c r="L15" t="n">
-        <v>384.1336418773267</v>
+        <v>384.1336418773266</v>
       </c>
       <c r="M15" t="n">
-        <v>448.2658416574722</v>
+        <v>448.265841657472</v>
       </c>
       <c r="N15" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O15" t="n">
-        <v>420.9291520234186</v>
+        <v>420.9291520234185</v>
       </c>
       <c r="P15" t="n">
-        <v>337.8327542683577</v>
+        <v>337.8327542683576</v>
       </c>
       <c r="Q15" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R15" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S15" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T15" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109342</v>
       </c>
       <c r="U15" t="n">
         <v>0.1163923770964529</v>
@@ -32151,43 +32151,43 @@
         <v>13.18706551785255</v>
       </c>
       <c r="I16" t="n">
-        <v>44.60410299903499</v>
+        <v>44.60410299903498</v>
       </c>
       <c r="J16" t="n">
         <v>104.8627899103673</v>
       </c>
       <c r="K16" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L16" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M16" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N16" t="n">
         <v>226.9712411677014</v>
       </c>
       <c r="O16" t="n">
-        <v>209.6446775782939</v>
+        <v>209.6446775782938</v>
       </c>
       <c r="P16" t="n">
         <v>179.3872389054296</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R16" t="n">
-        <v>66.69041518537695</v>
+        <v>66.69041518537693</v>
       </c>
       <c r="S16" t="n">
-        <v>25.84826645983979</v>
+        <v>25.84826645983978</v>
       </c>
       <c r="T16" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08090224244081323</v>
+        <v>0.08090224244081322</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,37 +32230,37 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I17" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J17" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K17" t="n">
-        <v>420.6064897385031</v>
+        <v>420.6064897385029</v>
       </c>
       <c r="L17" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M17" t="n">
-        <v>580.602531696557</v>
+        <v>580.6025316965569</v>
       </c>
       <c r="N17" t="n">
-        <v>589.997287660666</v>
+        <v>589.9972876606658</v>
       </c>
       <c r="O17" t="n">
-        <v>557.1177083846051</v>
+        <v>557.1177083846048</v>
       </c>
       <c r="P17" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325365</v>
       </c>
       <c r="Q17" t="n">
-        <v>357.0709909790298</v>
+        <v>357.0709909790297</v>
       </c>
       <c r="R17" t="n">
-        <v>207.7055307806275</v>
+        <v>207.7055307806274</v>
       </c>
       <c r="S17" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833957</v>
       </c>
       <c r="T17" t="n">
         <v>14.47445463541992</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.769164131866084</v>
+        <v>1.769164131866083</v>
       </c>
       <c r="H18" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I18" t="n">
-        <v>60.91201068047702</v>
+        <v>60.912010680477</v>
       </c>
       <c r="J18" t="n">
         <v>167.1472130023128</v>
@@ -32318,31 +32318,31 @@
         <v>285.6812098373404</v>
       </c>
       <c r="L18" t="n">
-        <v>384.1336418773267</v>
+        <v>384.1336418773266</v>
       </c>
       <c r="M18" t="n">
-        <v>448.2658416574722</v>
+        <v>448.265841657472</v>
       </c>
       <c r="N18" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O18" t="n">
-        <v>420.9291520234186</v>
+        <v>420.9291520234185</v>
       </c>
       <c r="P18" t="n">
-        <v>337.8327542683577</v>
+        <v>337.8327542683576</v>
       </c>
       <c r="Q18" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R18" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S18" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T18" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109342</v>
       </c>
       <c r="U18" t="n">
         <v>0.1163923770964529</v>
@@ -32388,43 +32388,43 @@
         <v>13.18706551785255</v>
       </c>
       <c r="I19" t="n">
-        <v>44.60410299903499</v>
+        <v>44.60410299903498</v>
       </c>
       <c r="J19" t="n">
         <v>104.8627899103673</v>
       </c>
       <c r="K19" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L19" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M19" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N19" t="n">
         <v>226.9712411677014</v>
       </c>
       <c r="O19" t="n">
-        <v>209.6446775782939</v>
+        <v>209.6446775782938</v>
       </c>
       <c r="P19" t="n">
         <v>179.3872389054296</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R19" t="n">
-        <v>66.69041518537695</v>
+        <v>66.69041518537693</v>
       </c>
       <c r="S19" t="n">
-        <v>25.84826645983979</v>
+        <v>25.84826645983978</v>
       </c>
       <c r="T19" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08090224244081323</v>
+        <v>0.08090224244081322</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,16 +32467,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I20" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J20" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K20" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L20" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M20" t="n">
         <v>580.602531696557</v>
@@ -32485,10 +32485,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O20" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P20" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q20" t="n">
         <v>357.0709909790298</v>
@@ -32497,7 +32497,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S20" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T20" t="n">
         <v>14.47445463541992</v>
@@ -32543,10 +32543,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H21" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I21" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J21" t="n">
         <v>167.1472130023128</v>
@@ -32558,10 +32558,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M21" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N21" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O21" t="n">
         <v>420.9291520234186</v>
@@ -32570,16 +32570,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q21" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R21" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S21" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T21" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U21" t="n">
         <v>0.1163923770964529</v>
@@ -32631,13 +32631,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K22" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L22" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M22" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N22" t="n">
         <v>226.9712411677014</v>
@@ -32649,7 +32649,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R22" t="n">
         <v>66.69041518537695</v>
@@ -32658,7 +32658,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T22" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U22" t="n">
         <v>0.08090224244081323</v>
@@ -32704,16 +32704,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I23" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J23" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K23" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L23" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M23" t="n">
         <v>580.602531696557</v>
@@ -32722,10 +32722,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O23" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P23" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q23" t="n">
         <v>357.0709909790298</v>
@@ -32734,7 +32734,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S23" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T23" t="n">
         <v>14.47445463541992</v>
@@ -32780,10 +32780,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H24" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I24" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J24" t="n">
         <v>167.1472130023128</v>
@@ -32795,10 +32795,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M24" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N24" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O24" t="n">
         <v>420.9291520234186</v>
@@ -32807,16 +32807,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q24" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R24" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S24" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T24" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U24" t="n">
         <v>0.1163923770964529</v>
@@ -32868,13 +32868,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K25" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L25" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M25" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N25" t="n">
         <v>226.9712411677014</v>
@@ -32886,7 +32886,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R25" t="n">
         <v>66.69041518537695</v>
@@ -32895,7 +32895,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T25" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U25" t="n">
         <v>0.08090224244081323</v>
@@ -32941,16 +32941,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I26" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J26" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K26" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L26" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M26" t="n">
         <v>580.602531696557</v>
@@ -32959,10 +32959,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O26" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P26" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q26" t="n">
         <v>357.0709909790298</v>
@@ -32971,7 +32971,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S26" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T26" t="n">
         <v>14.47445463541992</v>
@@ -33017,10 +33017,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H27" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I27" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J27" t="n">
         <v>167.1472130023128</v>
@@ -33032,10 +33032,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M27" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N27" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O27" t="n">
         <v>420.9291520234186</v>
@@ -33044,16 +33044,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q27" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R27" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S27" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T27" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U27" t="n">
         <v>0.1163923770964529</v>
@@ -33105,13 +33105,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K28" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L28" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M28" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N28" t="n">
         <v>226.9712411677014</v>
@@ -33123,7 +33123,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q28" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R28" t="n">
         <v>66.69041518537695</v>
@@ -33132,7 +33132,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T28" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U28" t="n">
         <v>0.08090224244081323</v>
@@ -33178,16 +33178,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I29" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J29" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K29" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L29" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M29" t="n">
         <v>580.602531696557</v>
@@ -33196,10 +33196,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O29" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P29" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q29" t="n">
         <v>357.0709909790298</v>
@@ -33208,7 +33208,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S29" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T29" t="n">
         <v>14.47445463541992</v>
@@ -33254,10 +33254,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H30" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I30" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J30" t="n">
         <v>167.1472130023128</v>
@@ -33269,10 +33269,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M30" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N30" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O30" t="n">
         <v>420.9291520234186</v>
@@ -33281,16 +33281,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q30" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R30" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S30" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T30" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U30" t="n">
         <v>0.1163923770964529</v>
@@ -33342,13 +33342,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K31" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L31" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M31" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N31" t="n">
         <v>226.9712411677014</v>
@@ -33360,7 +33360,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q31" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R31" t="n">
         <v>66.69041518537695</v>
@@ -33369,7 +33369,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T31" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U31" t="n">
         <v>0.08090224244081323</v>
@@ -33415,16 +33415,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I32" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J32" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K32" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L32" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M32" t="n">
         <v>580.602531696557</v>
@@ -33433,10 +33433,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O32" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P32" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q32" t="n">
         <v>357.0709909790298</v>
@@ -33445,7 +33445,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S32" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T32" t="n">
         <v>14.47445463541992</v>
@@ -33491,10 +33491,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H33" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I33" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J33" t="n">
         <v>167.1472130023128</v>
@@ -33506,10 +33506,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M33" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N33" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O33" t="n">
         <v>420.9291520234186</v>
@@ -33518,16 +33518,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q33" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R33" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S33" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T33" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U33" t="n">
         <v>0.1163923770964529</v>
@@ -33579,13 +33579,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K34" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L34" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M34" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N34" t="n">
         <v>226.9712411677014</v>
@@ -33597,7 +33597,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q34" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R34" t="n">
         <v>66.69041518537695</v>
@@ -33606,7 +33606,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T34" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U34" t="n">
         <v>0.08090224244081323</v>
@@ -33652,16 +33652,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I35" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J35" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K35" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L35" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M35" t="n">
         <v>580.602531696557</v>
@@ -33670,10 +33670,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O35" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P35" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q35" t="n">
         <v>357.0709909790298</v>
@@ -33682,7 +33682,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S35" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T35" t="n">
         <v>14.47445463541992</v>
@@ -33728,10 +33728,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H36" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I36" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J36" t="n">
         <v>167.1472130023128</v>
@@ -33743,10 +33743,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M36" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N36" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O36" t="n">
         <v>420.9291520234186</v>
@@ -33755,16 +33755,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q36" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R36" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S36" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T36" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U36" t="n">
         <v>0.1163923770964529</v>
@@ -33816,13 +33816,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K37" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L37" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M37" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N37" t="n">
         <v>226.9712411677014</v>
@@ -33834,7 +33834,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R37" t="n">
         <v>66.69041518537695</v>
@@ -33843,7 +33843,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T37" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U37" t="n">
         <v>0.08090224244081323</v>
@@ -33889,16 +33889,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I38" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J38" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K38" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L38" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M38" t="n">
         <v>580.602531696557</v>
@@ -33907,10 +33907,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O38" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P38" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q38" t="n">
         <v>357.0709909790298</v>
@@ -33919,7 +33919,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S38" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T38" t="n">
         <v>14.47445463541992</v>
@@ -33965,10 +33965,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H39" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I39" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J39" t="n">
         <v>167.1472130023128</v>
@@ -33980,10 +33980,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M39" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N39" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O39" t="n">
         <v>420.9291520234186</v>
@@ -33992,16 +33992,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q39" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R39" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S39" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T39" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U39" t="n">
         <v>0.1163923770964529</v>
@@ -34053,13 +34053,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K40" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L40" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M40" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N40" t="n">
         <v>226.9712411677014</v>
@@ -34071,7 +34071,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R40" t="n">
         <v>66.69041518537695</v>
@@ -34080,7 +34080,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T40" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U40" t="n">
         <v>0.08090224244081323</v>
@@ -34126,16 +34126,16 @@
         <v>33.86328007652637</v>
       </c>
       <c r="I41" t="n">
-        <v>127.4760507897263</v>
+        <v>127.4760507897262</v>
       </c>
       <c r="J41" t="n">
         <v>280.6399187008502</v>
       </c>
       <c r="K41" t="n">
-        <v>420.6064897385031</v>
+        <v>420.606489738503</v>
       </c>
       <c r="L41" t="n">
-        <v>521.7995430905836</v>
+        <v>521.7995430905835</v>
       </c>
       <c r="M41" t="n">
         <v>580.602531696557</v>
@@ -34144,10 +34144,10 @@
         <v>589.997287660666</v>
       </c>
       <c r="O41" t="n">
-        <v>557.1177083846051</v>
+        <v>557.117708384605</v>
       </c>
       <c r="P41" t="n">
-        <v>475.4870747325367</v>
+        <v>475.4870747325366</v>
       </c>
       <c r="Q41" t="n">
         <v>357.0709909790298</v>
@@ -34156,7 +34156,7 @@
         <v>207.7055307806275</v>
       </c>
       <c r="S41" t="n">
-        <v>75.3481747583396</v>
+        <v>75.34817475833958</v>
       </c>
       <c r="T41" t="n">
         <v>14.47445463541992</v>
@@ -34202,10 +34202,10 @@
         <v>1.769164131866084</v>
       </c>
       <c r="H42" t="n">
-        <v>17.08640095775929</v>
+        <v>17.08640095775928</v>
       </c>
       <c r="I42" t="n">
-        <v>60.91201068047702</v>
+        <v>60.91201068047701</v>
       </c>
       <c r="J42" t="n">
         <v>167.1472130023128</v>
@@ -34217,10 +34217,10 @@
         <v>384.1336418773267</v>
       </c>
       <c r="M42" t="n">
-        <v>448.2658416574722</v>
+        <v>448.2658416574721</v>
       </c>
       <c r="N42" t="n">
-        <v>460.130104629504</v>
+        <v>460.1301046295039</v>
       </c>
       <c r="O42" t="n">
         <v>420.9291520234186</v>
@@ -34229,16 +34229,16 @@
         <v>337.8327542683577</v>
       </c>
       <c r="Q42" t="n">
-        <v>225.8322495343444</v>
+        <v>225.8322495343443</v>
       </c>
       <c r="R42" t="n">
-        <v>109.8433660118259</v>
+        <v>109.8433660118258</v>
       </c>
       <c r="S42" t="n">
         <v>32.86144780023184</v>
       </c>
       <c r="T42" t="n">
-        <v>7.130972970109345</v>
+        <v>7.130972970109343</v>
       </c>
       <c r="U42" t="n">
         <v>0.1163923770964529</v>
@@ -34290,13 +34290,13 @@
         <v>104.8627899103673</v>
       </c>
       <c r="K43" t="n">
-        <v>172.321776398932</v>
+        <v>172.3217763989319</v>
       </c>
       <c r="L43" t="n">
         <v>220.5125454795097</v>
       </c>
       <c r="M43" t="n">
-        <v>232.4995610678235</v>
+        <v>232.4995610678234</v>
       </c>
       <c r="N43" t="n">
         <v>226.9712411677014</v>
@@ -34308,7 +34308,7 @@
         <v>179.3872389054296</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.1984258537217</v>
+        <v>124.1984258537216</v>
       </c>
       <c r="R43" t="n">
         <v>66.69041518537695</v>
@@ -34317,7 +34317,7 @@
         <v>25.84826645983979</v>
       </c>
       <c r="T43" t="n">
-        <v>6.337342324530361</v>
+        <v>6.33734232453036</v>
       </c>
       <c r="U43" t="n">
         <v>0.08090224244081323</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>222.1425621546524</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>244.5627323611424</v>
+        <v>222.1425621546525</v>
       </c>
       <c r="O3" t="n">
         <v>244.5627323611424</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6915715436817</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516666</v>
+        <v>79.07191193225269</v>
       </c>
       <c r="O6" t="n">
         <v>263.0434990833253</v>
@@ -35033,7 +35033,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35255,19 +35255,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K11" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646871</v>
       </c>
       <c r="L11" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M11" t="n">
-        <v>799.7698319621168</v>
+        <v>799.7698319621167</v>
       </c>
       <c r="N11" t="n">
-        <v>797.9311484760592</v>
+        <v>797.9311484760591</v>
       </c>
       <c r="O11" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256634</v>
       </c>
       <c r="P11" t="n">
-        <v>566.0527871487498</v>
+        <v>566.0527871487495</v>
       </c>
       <c r="Q11" t="n">
-        <v>347.080291764485</v>
+        <v>347.0802917644849</v>
       </c>
       <c r="R11" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947776</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.30958633564612</v>
+        <v>166.4006216760549</v>
       </c>
       <c r="K12" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L12" t="n">
-        <v>616.4196074009117</v>
+        <v>245.5792620974524</v>
       </c>
       <c r="M12" t="n">
-        <v>306.1318077354538</v>
+        <v>306.1318077354537</v>
       </c>
       <c r="N12" t="n">
-        <v>336.0783125238689</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O12" t="n">
-        <v>278.3329075789742</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P12" t="n">
-        <v>522.3211154939647</v>
+        <v>522.3211154939645</v>
       </c>
       <c r="Q12" t="n">
-        <v>295.9277631841719</v>
+        <v>293.1872879715252</v>
       </c>
       <c r="R12" t="n">
-        <v>9.685531859182717</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.50360979369452</v>
+        <v>11.50360979369449</v>
       </c>
       <c r="K13" t="n">
         <v>150.0522845730491</v>
       </c>
       <c r="L13" t="n">
-        <v>248.1025707398259</v>
+        <v>248.1025707398258</v>
       </c>
       <c r="M13" t="n">
-        <v>272.0834380296641</v>
+        <v>272.083438029664</v>
       </c>
       <c r="N13" t="n">
         <v>271.10341354693</v>
       </c>
       <c r="O13" t="n">
-        <v>234.2298054923336</v>
+        <v>234.2298054923335</v>
       </c>
       <c r="P13" t="n">
         <v>176.6657981703231</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.03638260202727</v>
+        <v>38.03638260202723</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K14" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646871</v>
       </c>
       <c r="L14" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M14" t="n">
-        <v>799.7698319621168</v>
+        <v>799.7698319621167</v>
       </c>
       <c r="N14" t="n">
-        <v>797.9311484760592</v>
+        <v>797.9311484760591</v>
       </c>
       <c r="O14" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256634</v>
       </c>
       <c r="P14" t="n">
-        <v>566.0527871487498</v>
+        <v>566.0527871487495</v>
       </c>
       <c r="Q14" t="n">
-        <v>347.080291764485</v>
+        <v>347.0802917644849</v>
       </c>
       <c r="R14" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947776</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.30958633564612</v>
+        <v>166.4006216760549</v>
       </c>
       <c r="K15" t="n">
-        <v>147.8397708629814</v>
+        <v>409.5645326629131</v>
       </c>
       <c r="L15" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974524</v>
       </c>
       <c r="M15" t="n">
-        <v>306.1318077354538</v>
+        <v>306.1318077354537</v>
       </c>
       <c r="N15" t="n">
-        <v>328.7883925461707</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O15" t="n">
-        <v>656.4631728601313</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P15" t="n">
-        <v>522.3211154939647</v>
+        <v>522.3211154939645</v>
       </c>
       <c r="Q15" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R15" t="n">
-        <v>9.685531859182717</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.16338529711538</v>
+        <v>14.16338529711544</v>
       </c>
       <c r="K16" t="n">
         <v>152.71206007647</v>
       </c>
       <c r="L16" t="n">
-        <v>250.7623462432467</v>
+        <v>250.7623462432468</v>
       </c>
       <c r="M16" t="n">
         <v>274.7432135330849</v>
@@ -35820,10 +35820,10 @@
         <v>236.8895809957544</v>
       </c>
       <c r="P16" t="n">
-        <v>179.3255736737439</v>
+        <v>179.325573673744</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.69615810544813</v>
+        <v>40.69615810544818</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>268.6906293462379</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K17" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646871</v>
       </c>
       <c r="L17" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M17" t="n">
-        <v>799.7698319621168</v>
+        <v>799.7698319621167</v>
       </c>
       <c r="N17" t="n">
-        <v>797.9311484760592</v>
+        <v>797.9311484760591</v>
       </c>
       <c r="O17" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256634</v>
       </c>
       <c r="P17" t="n">
-        <v>566.0527871487498</v>
+        <v>566.0527871487495</v>
       </c>
       <c r="Q17" t="n">
-        <v>347.080291764485</v>
+        <v>347.0802917644849</v>
       </c>
       <c r="R17" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947776</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>40.30958633564612</v>
+        <v>166.4006216760549</v>
       </c>
       <c r="K18" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L18" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974524</v>
       </c>
       <c r="M18" t="n">
-        <v>306.1318077354538</v>
+        <v>306.1318077354537</v>
       </c>
       <c r="N18" t="n">
-        <v>706.9186578273279</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O18" t="n">
-        <v>278.3329075789742</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P18" t="n">
-        <v>522.3211154939647</v>
+        <v>522.3211154939645</v>
       </c>
       <c r="Q18" t="n">
-        <v>295.9277631841719</v>
+        <v>283.5017561123426</v>
       </c>
       <c r="R18" t="n">
-        <v>9.685531859182717</v>
+        <v>9.685531859182689</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>250.7623462432467</v>
       </c>
       <c r="M19" t="n">
-        <v>274.7432135330849</v>
+        <v>274.7432135330848</v>
       </c>
       <c r="N19" t="n">
         <v>273.7631890503509</v>
@@ -36060,7 +36060,7 @@
         <v>179.3255736737439</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.69615810544813</v>
+        <v>40.69615810544812</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K20" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646872</v>
       </c>
       <c r="L20" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M20" t="n">
         <v>799.7698319621168</v>
@@ -36133,7 +36133,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O20" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P20" t="n">
         <v>566.0527871487498</v>
@@ -36142,7 +36142,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R20" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.30958633564612</v>
+        <v>166.4006216760549</v>
       </c>
       <c r="K21" t="n">
         <v>147.8397708629814</v>
       </c>
       <c r="L21" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M21" t="n">
         <v>306.1318077354538</v>
       </c>
       <c r="N21" t="n">
-        <v>328.7883925461707</v>
+        <v>505.4280718501274</v>
       </c>
       <c r="O21" t="n">
-        <v>656.4631728601313</v>
+        <v>672.1952268557036</v>
       </c>
       <c r="P21" t="n">
-        <v>522.3211154939647</v>
+        <v>203.8583468540274</v>
       </c>
       <c r="Q21" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R21" t="n">
-        <v>9.685531859182717</v>
+        <v>9.685531859182703</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.16338529711538</v>
+        <v>14.16338529711537</v>
       </c>
       <c r="K22" t="n">
         <v>152.71206007647</v>
@@ -36297,7 +36297,7 @@
         <v>179.3255736737439</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.69615810544813</v>
+        <v>40.69615810544812</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K23" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646872</v>
       </c>
       <c r="L23" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M23" t="n">
         <v>799.7698319621168</v>
@@ -36370,7 +36370,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O23" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P23" t="n">
         <v>566.0527871487498</v>
@@ -36379,7 +36379,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R23" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>40.30958633564612</v>
+        <v>166.4006216760549</v>
       </c>
       <c r="K24" t="n">
         <v>147.8397708629814</v>
       </c>
       <c r="L24" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M24" t="n">
-        <v>306.1318077354538</v>
+        <v>482.7714870394105</v>
       </c>
       <c r="N24" t="n">
-        <v>328.7883925461707</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O24" t="n">
-        <v>656.4631728601313</v>
+        <v>672.1952268557036</v>
       </c>
       <c r="P24" t="n">
-        <v>522.3211154939647</v>
+        <v>203.8583468540274</v>
       </c>
       <c r="Q24" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R24" t="n">
-        <v>9.685531859182717</v>
+        <v>9.685531859182703</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.16338529711538</v>
+        <v>14.16338529711537</v>
       </c>
       <c r="K25" t="n">
         <v>152.71206007647</v>
@@ -36534,7 +36534,7 @@
         <v>179.3255736737439</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.69615810544813</v>
+        <v>40.69615810544812</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K26" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646872</v>
       </c>
       <c r="L26" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M26" t="n">
         <v>799.7698319621168</v>
@@ -36607,7 +36607,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O26" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P26" t="n">
         <v>566.0527871487498</v>
@@ -36616,7 +36616,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R26" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>40.30958633564612</v>
+        <v>166.4006216760549</v>
       </c>
       <c r="K27" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L27" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M27" t="n">
         <v>306.1318077354538</v>
       </c>
       <c r="N27" t="n">
-        <v>328.7883925461707</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O27" t="n">
-        <v>656.4631728601313</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P27" t="n">
-        <v>522.3211154939647</v>
+        <v>509.8951084221348</v>
       </c>
       <c r="Q27" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R27" t="n">
-        <v>9.685531859182717</v>
+        <v>9.685531859182703</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>276.7381109416892</v>
       </c>
       <c r="M28" t="n">
-        <v>300.7189782315274</v>
+        <v>300.7189782315273</v>
       </c>
       <c r="N28" t="n">
         <v>299.7389537487933</v>
       </c>
       <c r="O28" t="n">
-        <v>262.8653456941969</v>
+        <v>262.8653456941968</v>
       </c>
       <c r="P28" t="n">
         <v>205.3013383721864</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K29" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646872</v>
       </c>
       <c r="L29" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M29" t="n">
         <v>799.7698319621168</v>
@@ -36844,7 +36844,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O29" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P29" t="n">
         <v>566.0527871487498</v>
@@ -36853,7 +36853,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R29" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.30958633564612</v>
+        <v>163.660146463408</v>
       </c>
       <c r="K30" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L30" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M30" t="n">
         <v>306.1318077354538</v>
       </c>
       <c r="N30" t="n">
-        <v>328.7883925461707</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O30" t="n">
-        <v>656.4631728601313</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P30" t="n">
-        <v>522.3211154939647</v>
+        <v>522.3211154939646</v>
       </c>
       <c r="Q30" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R30" t="n">
-        <v>9.685531859182717</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>37.47937449213698</v>
+        <v>37.47937449213693</v>
       </c>
       <c r="K31" t="n">
-        <v>176.0280492714916</v>
+        <v>176.0280492714915</v>
       </c>
       <c r="L31" t="n">
         <v>274.0783354382683</v>
       </c>
       <c r="M31" t="n">
-        <v>298.0592027281065</v>
+        <v>298.0592027281064</v>
       </c>
       <c r="N31" t="n">
-        <v>297.0791782453725</v>
+        <v>297.0791782453724</v>
       </c>
       <c r="O31" t="n">
-        <v>260.205570190776</v>
+        <v>260.2055701907759</v>
       </c>
       <c r="P31" t="n">
-        <v>202.6415628687656</v>
+        <v>202.6415628687655</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.01214730046974</v>
+        <v>64.01214730046968</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K32" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646872</v>
       </c>
       <c r="L32" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M32" t="n">
         <v>799.7698319621168</v>
@@ -37081,7 +37081,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O32" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P32" t="n">
         <v>566.0527871487498</v>
@@ -37090,7 +37090,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R32" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>40.30958633564612</v>
+        <v>163.6601464634079</v>
       </c>
       <c r="K33" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L33" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M33" t="n">
         <v>306.1318077354538</v>
       </c>
       <c r="N33" t="n">
-        <v>706.9186578273279</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O33" t="n">
-        <v>278.3329075789742</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P33" t="n">
-        <v>522.3211154939647</v>
+        <v>522.3211154939646</v>
       </c>
       <c r="Q33" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R33" t="n">
-        <v>9.685531859182717</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>303.0041013731579</v>
       </c>
       <c r="P34" t="n">
-        <v>245.4400940511475</v>
+        <v>245.4400940511474</v>
       </c>
       <c r="Q34" t="n">
         <v>106.8106784828516</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K35" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646872</v>
       </c>
       <c r="L35" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M35" t="n">
         <v>799.7698319621168</v>
@@ -37318,7 +37318,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O35" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P35" t="n">
         <v>566.0527871487498</v>
@@ -37327,7 +37327,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R35" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>40.30958633564612</v>
+        <v>153.9746146042253</v>
       </c>
       <c r="K36" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L36" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M36" t="n">
         <v>306.1318077354538</v>
       </c>
       <c r="N36" t="n">
-        <v>328.7883925461707</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O36" t="n">
-        <v>656.4631728601313</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P36" t="n">
-        <v>522.3211154939647</v>
+        <v>522.3211154939646</v>
       </c>
       <c r="Q36" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R36" t="n">
-        <v>9.685531859182717</v>
+        <v>9.685531859182703</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.27790567451891</v>
+        <v>80.27790567451889</v>
       </c>
       <c r="K37" t="n">
         <v>218.8265804538735</v>
       </c>
       <c r="L37" t="n">
-        <v>316.8768666206503</v>
+        <v>316.8768666206502</v>
       </c>
       <c r="M37" t="n">
-        <v>340.8577339104885</v>
+        <v>340.8577339104884</v>
       </c>
       <c r="N37" t="n">
         <v>339.8777094277544</v>
@@ -37479,10 +37479,10 @@
         <v>303.0041013731579</v>
       </c>
       <c r="P37" t="n">
-        <v>245.4400940511475</v>
+        <v>245.4400940511474</v>
       </c>
       <c r="Q37" t="n">
-        <v>106.8106784828517</v>
+        <v>106.8106784828516</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>268.6906293462377</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K38" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646872</v>
       </c>
       <c r="L38" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M38" t="n">
         <v>799.7698319621168</v>
@@ -37555,7 +37555,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O38" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P38" t="n">
         <v>566.0527871487498</v>
@@ -37564,7 +37564,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R38" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>40.30958633564612</v>
+        <v>166.4006216760549</v>
       </c>
       <c r="K39" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L39" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M39" t="n">
         <v>306.1318077354538</v>
       </c>
       <c r="N39" t="n">
-        <v>328.7883925461707</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O39" t="n">
-        <v>656.4631728601313</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P39" t="n">
-        <v>522.3211154939647</v>
+        <v>509.8951084221348</v>
       </c>
       <c r="Q39" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R39" t="n">
-        <v>9.685531859182717</v>
+        <v>9.685531859182703</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.27790567451891</v>
+        <v>80.27790567451889</v>
       </c>
       <c r="K40" t="n">
         <v>218.8265804538735</v>
       </c>
       <c r="L40" t="n">
-        <v>316.8768666206503</v>
+        <v>316.8768666206502</v>
       </c>
       <c r="M40" t="n">
-        <v>340.8577339104885</v>
+        <v>340.8577339104884</v>
       </c>
       <c r="N40" t="n">
         <v>339.8777094277544</v>
@@ -37716,10 +37716,10 @@
         <v>303.0041013731579</v>
       </c>
       <c r="P40" t="n">
-        <v>245.4400940511475</v>
+        <v>245.4400940511474</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.8106784828517</v>
+        <v>106.8106784828516</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>268.690629346237</v>
+        <v>268.6906293462376</v>
       </c>
       <c r="K41" t="n">
-        <v>524.6620512646873</v>
+        <v>524.6620512646886</v>
       </c>
       <c r="L41" t="n">
-        <v>703.6943426710468</v>
+        <v>703.6943426710467</v>
       </c>
       <c r="M41" t="n">
         <v>799.7698319621168</v>
@@ -37792,7 +37792,7 @@
         <v>797.9311484760592</v>
       </c>
       <c r="O41" t="n">
-        <v>707.8196782256637</v>
+        <v>707.8196782256636</v>
       </c>
       <c r="P41" t="n">
         <v>566.0527871487498</v>
@@ -37801,7 +37801,7 @@
         <v>347.080291764485</v>
       </c>
       <c r="R41" t="n">
-        <v>57.83641283947782</v>
+        <v>57.83641283947779</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>40.30958633564612</v>
+        <v>153.9746146042253</v>
       </c>
       <c r="K42" t="n">
-        <v>147.8397708629814</v>
+        <v>412.30500787556</v>
       </c>
       <c r="L42" t="n">
-        <v>245.5792620974526</v>
+        <v>245.5792620974525</v>
       </c>
       <c r="M42" t="n">
         <v>306.1318077354538</v>
       </c>
       <c r="N42" t="n">
-        <v>328.7883925461707</v>
+        <v>328.7883925461706</v>
       </c>
       <c r="O42" t="n">
-        <v>656.4631728601313</v>
+        <v>278.3329075789741</v>
       </c>
       <c r="P42" t="n">
-        <v>522.3211154939647</v>
+        <v>522.3211154939646</v>
       </c>
       <c r="Q42" t="n">
         <v>295.9277631841719</v>
       </c>
       <c r="R42" t="n">
-        <v>9.685531859182717</v>
+        <v>9.685531859182703</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.27790567451886</v>
+        <v>80.27790567451882</v>
       </c>
       <c r="K43" t="n">
-        <v>218.8265804538735</v>
+        <v>218.8265804538734</v>
       </c>
       <c r="L43" t="n">
         <v>316.8768666206502</v>
       </c>
       <c r="M43" t="n">
-        <v>340.8577339104884</v>
+        <v>340.8577339104883</v>
       </c>
       <c r="N43" t="n">
-        <v>339.8777094277544</v>
+        <v>339.8777094277543</v>
       </c>
       <c r="O43" t="n">
-        <v>303.0041013731579</v>
+        <v>303.0041013731578</v>
       </c>
       <c r="P43" t="n">
         <v>245.4400940511474</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.690629346237</v>
+        <v>268.6906293462377</v>
       </c>
       <c r="K44" t="n">
         <v>524.6620512646873</v>
@@ -38023,7 +38023,7 @@
         <v>703.6943426710468</v>
       </c>
       <c r="M44" t="n">
-        <v>799.7698319621168</v>
+        <v>799.769831962117</v>
       </c>
       <c r="N44" t="n">
         <v>797.9311484760592</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>40.30958633564612</v>
+        <v>166.400621676055</v>
       </c>
       <c r="K45" t="n">
-        <v>147.8397708629814</v>
+        <v>399.8790008037298</v>
       </c>
       <c r="L45" t="n">
         <v>245.5792620974526</v>
@@ -38108,7 +38108,7 @@
         <v>328.7883925461707</v>
       </c>
       <c r="O45" t="n">
-        <v>656.4631728601313</v>
+        <v>278.3329075789742</v>
       </c>
       <c r="P45" t="n">
         <v>522.3211154939647</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.27790567451889</v>
+        <v>80.27790567451891</v>
       </c>
       <c r="K46" t="n">
         <v>218.8265804538735</v>
       </c>
       <c r="L46" t="n">
-        <v>316.8768666206502</v>
+        <v>316.8768666206503</v>
       </c>
       <c r="M46" t="n">
-        <v>340.8577339104884</v>
+        <v>340.8577339104885</v>
       </c>
       <c r="N46" t="n">
         <v>339.8777094277544</v>
@@ -38193,7 +38193,7 @@
         <v>245.4400940511475</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.8106784828516</v>
+        <v>106.8106784828517</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
